--- a/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample06-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample06-from-config-file.xlsx
@@ -6,6 +6,7 @@
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="1" r:id="rId1"/>
+    <sheet name="ssss" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Invoice'!$A$5:$K$5</definedName>
@@ -16097,4 +16098,15 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample06-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample06-from-config-file.xlsx
@@ -1282,7 +1282,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1309,7 +1309,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF90EE90" tint="0"/>
+        <fgColor rgb="FF008000" tint="0"/>
+        <bgColor rgb="FFFFFF" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000" tint="0"/>
+        <bgColor rgb="FFFFFF" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000080" tint="0"/>
         <bgColor rgb="FFFFFF" tint="0"/>
       </patternFill>
     </fill>
@@ -1341,7 +1353,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2">
       <alignment horizontal="left" vertical="center"/>
@@ -1395,13 +1407,25 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="2">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="2">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="2">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1455,19 +1479,25 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="2" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="2" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="4" applyFill="1" xfId="16" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="6" applyFill="1" borderId="2" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="4" applyFill="1" xfId="17" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="6" applyFill="1" borderId="2" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="7" applyFill="1" borderId="2" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="7" applyFill="1" borderId="2" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="20">
+  <cellStyles count="24">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="_Default_" xfId="1"/>
     <cellStyle name="HeaderDecimalStyle" xfId="2"/>
@@ -1486,8 +1516,12 @@
     <cellStyle name="ValueNumericStyle_Alternate" xfId="15"/>
     <cellStyle name="ValueStringStyle" xfId="16"/>
     <cellStyle name="ValueStringStyle_Alternate" xfId="17"/>
-    <cellStyle name="MinimumTotalConditionStyle" xfId="18"/>
-    <cellStyle name="MinimumTotalConditionStyle_Alternate" xfId="19"/>
+    <cellStyle name="MaximumConditionStyle" xfId="18"/>
+    <cellStyle name="MaximumConditionStyle_Alternate" xfId="19"/>
+    <cellStyle name="MinimumConditionStyle" xfId="20"/>
+    <cellStyle name="MinimumConditionStyle_Alternate" xfId="21"/>
+    <cellStyle name="ZeroConditionStyle" xfId="22"/>
+    <cellStyle name="ZeroConditionStyle_Alternate" xfId="23"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -1549,17 +1583,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.39577102661133" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="10.8190710885184" customWidth="1"/>
-    <col min="3" max="3" width="21.1530857086182" customWidth="1"/>
+    <col min="3" max="3" width="20.0285186767578" customWidth="1"/>
     <col min="4" max="4" width="17.7731246948242" customWidth="1"/>
     <col min="5" max="5" width="26.5398646763393" customWidth="1"/>
     <col min="6" max="6" width="36.7100655691964" customWidth="1"/>
     <col min="7" max="7" width="18.1758411952427" customWidth="1"/>
-    <col min="8" max="8" width="8.32992172241211" customWidth="1"/>
-    <col min="9" max="9" width="14.2519204275949" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.7882537841797" customWidth="1"/>
     <col min="10" max="10" width="14.2115238734654" customWidth="1"/>
-    <col min="11" max="11" width="8.23375374930245" customWidth="1"/>
+    <col min="11" max="11" width="10.6540472848075" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="100.5" customHeight="1"/>
@@ -1675,7 +1709,7 @@
       <c r="B6" s="10">
         <v>40248</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -1710,7 +1744,7 @@
       <c r="B7" s="11">
         <v>40342</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="17" t="s">
@@ -1745,7 +1779,7 @@
       <c r="B8" s="10">
         <v>40436</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -1780,7 +1814,7 @@
       <c r="B9" s="11">
         <v>40669</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="17" t="s">
@@ -1804,7 +1838,7 @@
       <c r="J9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="13">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -1815,7 +1849,7 @@
       <c r="B10" s="10">
         <v>41209</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="16" t="s">
@@ -1850,7 +1884,7 @@
       <c r="B11" s="11">
         <v>41250</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="17" t="s">
@@ -1885,7 +1919,7 @@
       <c r="B12" s="10">
         <v>41493</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="16" t="s">
@@ -1909,8 +1943,8 @@
       <c r="J12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="12">
-        <v>8.90999984741211</v>
+      <c r="K12" s="20">
+        <v>-8.90999984741211</v>
       </c>
     </row>
     <row r="13">
@@ -1920,7 +1954,7 @@
       <c r="B13" s="11">
         <v>39814</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="17" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="17" t="s">
@@ -1955,7 +1989,7 @@
       <c r="B14" s="10">
         <v>39855</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="16" t="s">
@@ -1990,7 +2024,7 @@
       <c r="B15" s="11">
         <v>40098</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="17" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="17" t="s">
@@ -2025,7 +2059,7 @@
       <c r="B16" s="10">
         <v>40682</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="16" t="s">
@@ -2060,7 +2094,7 @@
       <c r="B17" s="11">
         <v>40776</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="17" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -2095,7 +2129,7 @@
       <c r="B18" s="10">
         <v>40870</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="16" t="s">
@@ -2130,7 +2164,7 @@
       <c r="B19" s="11">
         <v>41103</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="17" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="17" t="s">
@@ -2154,8 +2188,8 @@
       <c r="J19" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="18">
-        <v>0.99000000953674316</v>
+      <c r="K19" s="13">
+        <v>-0.99000000953674316</v>
       </c>
     </row>
     <row r="20">
@@ -2165,7 +2199,7 @@
       <c r="B20" s="10">
         <v>40248</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="16" t="s">
@@ -2200,7 +2234,7 @@
       <c r="B21" s="11">
         <v>40289</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="17" t="s">
@@ -2235,7 +2269,7 @@
       <c r="B22" s="10">
         <v>40532</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="16" t="s">
@@ -2259,8 +2293,8 @@
       <c r="J22" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="12">
-        <v>8.90999984741211</v>
+      <c r="K22" s="22">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2270,7 +2304,7 @@
       <c r="B23" s="11">
         <v>41116</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D23" s="17" t="s">
@@ -2305,7 +2339,7 @@
       <c r="B24" s="10">
         <v>41210</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="16" t="s">
@@ -2340,7 +2374,7 @@
       <c r="B25" s="11">
         <v>41304</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D25" s="17" t="s">
@@ -2375,7 +2409,7 @@
       <c r="B26" s="10">
         <v>41537</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="16" t="s">
@@ -2399,7 +2433,7 @@
       <c r="J26" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K26" s="12">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -2410,7 +2444,7 @@
       <c r="B27" s="11">
         <v>39815</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D27" s="17" t="s">
@@ -2445,7 +2479,7 @@
       <c r="B28" s="10">
         <v>39909</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="16" t="s">
@@ -2480,7 +2514,7 @@
       <c r="B29" s="11">
         <v>40142</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="17" t="s">
@@ -2504,7 +2538,7 @@
       <c r="J29" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K29" s="13">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -2515,7 +2549,7 @@
       <c r="B30" s="10">
         <v>40682</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D30" s="16" t="s">
@@ -2550,7 +2584,7 @@
       <c r="B31" s="11">
         <v>40723</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="17" t="s">
@@ -2585,7 +2619,7 @@
       <c r="B32" s="10">
         <v>40966</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="16" t="s">
@@ -2620,7 +2654,7 @@
       <c r="B33" s="11">
         <v>41550</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D33" s="17" t="s">
@@ -2655,7 +2689,7 @@
       <c r="B34" s="10">
         <v>40155</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D34" s="16" t="s">
@@ -2690,7 +2724,7 @@
       <c r="B35" s="11">
         <v>40249</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="17" t="s">
         <v>46</v>
       </c>
       <c r="D35" s="17" t="s">
@@ -2725,7 +2759,7 @@
       <c r="B36" s="10">
         <v>40343</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D36" s="16" t="s">
@@ -2760,7 +2794,7 @@
       <c r="B37" s="11">
         <v>40576</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="17" t="s">
         <v>46</v>
       </c>
       <c r="D37" s="17" t="s">
@@ -2784,8 +2818,8 @@
       <c r="J37" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="K37" s="18">
-        <v>0.99000000953674316</v>
+      <c r="K37" s="22">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2795,7 +2829,7 @@
       <c r="B38" s="10">
         <v>41116</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D38" s="16" t="s">
@@ -2830,7 +2864,7 @@
       <c r="B39" s="11">
         <v>41157</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="17" t="s">
         <v>46</v>
       </c>
       <c r="D39" s="17" t="s">
@@ -2865,7 +2899,7 @@
       <c r="B40" s="10">
         <v>41400</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D40" s="16" t="s">
@@ -2900,7 +2934,7 @@
       <c r="B41" s="11">
         <v>40005</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="17" t="s">
         <v>53</v>
       </c>
       <c r="D41" s="17" t="s">
@@ -2935,7 +2969,7 @@
       <c r="B42" s="10">
         <v>40589</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="16" t="s">
         <v>53</v>
       </c>
       <c r="D42" s="16" t="s">
@@ -2970,7 +3004,7 @@
       <c r="B43" s="11">
         <v>40683</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="17" t="s">
         <v>53</v>
       </c>
       <c r="D43" s="17" t="s">
@@ -3005,7 +3039,7 @@
       <c r="B44" s="10">
         <v>40777</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="16" t="s">
         <v>53</v>
       </c>
       <c r="D44" s="16" t="s">
@@ -3040,7 +3074,7 @@
       <c r="B45" s="11">
         <v>41010</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="17" t="s">
         <v>53</v>
       </c>
       <c r="D45" s="17" t="s">
@@ -3064,7 +3098,7 @@
       <c r="J45" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="K45" s="18">
+      <c r="K45" s="13">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -3075,7 +3109,7 @@
       <c r="B46" s="10">
         <v>41550</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="16" t="s">
         <v>53</v>
       </c>
       <c r="D46" s="16" t="s">
@@ -3104,37 +3138,37 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="15">
+      <c r="A47" s="18">
         <v>404</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="18">
         <v>41591</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="F47" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G47" s="17" t="s">
+      <c r="G47" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="H47" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I47" s="17" t="s">
+      <c r="H47" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I47" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="J47" s="17" t="s">
+      <c r="J47" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="K47" s="13">
+      <c r="K47" s="18">
         <v>25.860000610351562</v>
       </c>
     </row>
@@ -3145,7 +3179,7 @@
       <c r="B48" s="10">
         <v>40155</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="16" t="s">
         <v>58</v>
       </c>
       <c r="D48" s="16" t="s">
@@ -3180,7 +3214,7 @@
       <c r="B49" s="11">
         <v>40196</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="17" t="s">
         <v>58</v>
       </c>
       <c r="D49" s="17" t="s">
@@ -3215,7 +3249,7 @@
       <c r="B50" s="10">
         <v>40439</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="16" t="s">
         <v>58</v>
       </c>
       <c r="D50" s="16" t="s">
@@ -3250,7 +3284,7 @@
       <c r="B51" s="11">
         <v>41023</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="17" t="s">
         <v>58</v>
       </c>
       <c r="D51" s="17" t="s">
@@ -3274,8 +3308,8 @@
       <c r="J51" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="K51" s="13">
-        <v>1.9800000190734863</v>
+      <c r="K51" s="22">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -3285,7 +3319,7 @@
       <c r="B52" s="10">
         <v>41117</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="16" t="s">
         <v>58</v>
       </c>
       <c r="D52" s="16" t="s">
@@ -3320,7 +3354,7 @@
       <c r="B53" s="11">
         <v>41211</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="17" t="s">
         <v>58</v>
       </c>
       <c r="D53" s="17" t="s">
@@ -3355,7 +3389,7 @@
       <c r="B54" s="10">
         <v>41444</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="16" t="s">
         <v>58</v>
       </c>
       <c r="D54" s="16" t="s">
@@ -3379,7 +3413,7 @@
       <c r="J54" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="K54" s="18">
+      <c r="K54" s="12">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -3390,7 +3424,7 @@
       <c r="B55" s="11">
         <v>39816</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D55" s="17" t="s">
@@ -3425,7 +3459,7 @@
       <c r="B56" s="10">
         <v>40049</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="16" t="s">
         <v>65</v>
       </c>
       <c r="D56" s="16" t="s">
@@ -3449,7 +3483,7 @@
       <c r="J56" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="K56" s="18">
+      <c r="K56" s="12">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -3460,7 +3494,7 @@
       <c r="B57" s="11">
         <v>40589</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D57" s="17" t="s">
@@ -3495,7 +3529,7 @@
       <c r="B58" s="10">
         <v>40630</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="16" t="s">
         <v>65</v>
       </c>
       <c r="D58" s="16" t="s">
@@ -3530,7 +3564,7 @@
       <c r="B59" s="11">
         <v>40873</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D59" s="17" t="s">
@@ -3565,7 +3599,7 @@
       <c r="B60" s="10">
         <v>41457</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="16" t="s">
         <v>65</v>
       </c>
       <c r="D60" s="16" t="s">
@@ -3600,7 +3634,7 @@
       <c r="B61" s="11">
         <v>41551</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D61" s="17" t="s">
@@ -3635,7 +3669,7 @@
       <c r="B62" s="10">
         <v>40062</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="16" t="s">
         <v>72</v>
       </c>
       <c r="D62" s="16" t="s">
@@ -3670,7 +3704,7 @@
       <c r="B63" s="11">
         <v>40156</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="17" t="s">
         <v>72</v>
       </c>
       <c r="D63" s="17" t="s">
@@ -3705,7 +3739,7 @@
       <c r="B64" s="10">
         <v>40250</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="16" t="s">
         <v>72</v>
       </c>
       <c r="D64" s="16" t="s">
@@ -3740,7 +3774,7 @@
       <c r="B65" s="11">
         <v>40483</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="17" t="s">
         <v>72</v>
       </c>
       <c r="D65" s="17" t="s">
@@ -3764,7 +3798,7 @@
       <c r="J65" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="K65" s="18">
+      <c r="K65" s="13">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -3775,7 +3809,7 @@
       <c r="B66" s="10">
         <v>41023</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="16" t="s">
         <v>72</v>
       </c>
       <c r="D66" s="16" t="s">
@@ -3810,7 +3844,7 @@
       <c r="B67" s="11">
         <v>41064</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="17" t="s">
         <v>72</v>
       </c>
       <c r="D67" s="17" t="s">
@@ -3845,7 +3879,7 @@
       <c r="B68" s="10">
         <v>41307</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="16" t="s">
         <v>72</v>
       </c>
       <c r="D68" s="16" t="s">
@@ -3880,7 +3914,7 @@
       <c r="B69" s="11">
         <v>39912</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="17" t="s">
         <v>79</v>
       </c>
       <c r="D69" s="17" t="s">
@@ -3915,7 +3949,7 @@
       <c r="B70" s="10">
         <v>40496</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="16" t="s">
         <v>79</v>
       </c>
       <c r="D70" s="16" t="s">
@@ -3950,7 +3984,7 @@
       <c r="B71" s="11">
         <v>40590</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="17" t="s">
         <v>79</v>
       </c>
       <c r="D71" s="17" t="s">
@@ -3985,7 +4019,7 @@
       <c r="B72" s="10">
         <v>40684</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="16" t="s">
         <v>79</v>
       </c>
       <c r="D72" s="16" t="s">
@@ -4020,7 +4054,7 @@
       <c r="B73" s="11">
         <v>40917</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="17" t="s">
         <v>79</v>
       </c>
       <c r="D73" s="17" t="s">
@@ -4044,7 +4078,7 @@
       <c r="J73" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="K73" s="18">
+      <c r="K73" s="13">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -4055,7 +4089,7 @@
       <c r="B74" s="10">
         <v>41457</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="16" t="s">
         <v>79</v>
       </c>
       <c r="D74" s="16" t="s">
@@ -4090,7 +4124,7 @@
       <c r="B75" s="11">
         <v>41498</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="17" t="s">
         <v>79</v>
       </c>
       <c r="D75" s="17" t="s">
@@ -4125,7 +4159,7 @@
       <c r="B76" s="10">
         <v>40062</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D76" s="16" t="s">
@@ -4160,7 +4194,7 @@
       <c r="B77" s="11">
         <v>40103</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="17" t="s">
         <v>85</v>
       </c>
       <c r="D77" s="17" t="s">
@@ -4195,7 +4229,7 @@
       <c r="B78" s="10">
         <v>40346</v>
       </c>
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D78" s="16" t="s">
@@ -4230,7 +4264,7 @@
       <c r="B79" s="11">
         <v>40930</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="17" t="s">
         <v>85</v>
       </c>
       <c r="D79" s="17" t="s">
@@ -4265,7 +4299,7 @@
       <c r="B80" s="10">
         <v>41024</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D80" s="16" t="s">
@@ -4300,7 +4334,7 @@
       <c r="B81" s="11">
         <v>41118</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C81" s="17" t="s">
         <v>85</v>
       </c>
       <c r="D81" s="17" t="s">
@@ -4335,7 +4369,7 @@
       <c r="B82" s="10">
         <v>41351</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D82" s="16" t="s">
@@ -4359,7 +4393,7 @@
       <c r="J82" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="K82" s="18">
+      <c r="K82" s="12">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -4370,7 +4404,7 @@
       <c r="B83" s="11">
         <v>39956</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C83" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D83" s="17" t="s">
@@ -4394,8 +4428,8 @@
       <c r="J83" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="K83" s="18">
-        <v>0.99000000953674316</v>
+      <c r="K83" s="22">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -4405,7 +4439,7 @@
       <c r="B84" s="10">
         <v>40496</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C84" s="16" t="s">
         <v>90</v>
       </c>
       <c r="D84" s="16" t="s">
@@ -4440,7 +4474,7 @@
       <c r="B85" s="11">
         <v>40537</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D85" s="17" t="s">
@@ -4475,7 +4509,7 @@
       <c r="B86" s="10">
         <v>40780</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="16" t="s">
         <v>90</v>
       </c>
       <c r="D86" s="16" t="s">
@@ -4510,7 +4544,7 @@
       <c r="B87" s="11">
         <v>41364</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D87" s="17" t="s">
@@ -4545,7 +4579,7 @@
       <c r="B88" s="10">
         <v>41458</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C88" s="16" t="s">
         <v>90</v>
       </c>
       <c r="D88" s="16" t="s">
@@ -4580,7 +4614,7 @@
       <c r="B89" s="11">
         <v>41552</v>
       </c>
-      <c r="C89" s="21" t="s">
+      <c r="C89" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D89" s="17" t="s">
@@ -4615,7 +4649,7 @@
       <c r="B90" s="10">
         <v>39969</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="16" t="s">
         <v>97</v>
       </c>
       <c r="D90" s="16" t="s">
@@ -4650,7 +4684,7 @@
       <c r="B91" s="11">
         <v>40063</v>
       </c>
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="17" t="s">
         <v>97</v>
       </c>
       <c r="D91" s="17" t="s">
@@ -4685,7 +4719,7 @@
       <c r="B92" s="10">
         <v>40157</v>
       </c>
-      <c r="C92" s="20" t="s">
+      <c r="C92" s="16" t="s">
         <v>97</v>
       </c>
       <c r="D92" s="16" t="s">
@@ -4720,7 +4754,7 @@
       <c r="B93" s="11">
         <v>40390</v>
       </c>
-      <c r="C93" s="21" t="s">
+      <c r="C93" s="17" t="s">
         <v>97</v>
       </c>
       <c r="D93" s="17" t="s">
@@ -4744,7 +4778,7 @@
       <c r="J93" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="K93" s="18">
+      <c r="K93" s="13">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -4755,7 +4789,7 @@
       <c r="B94" s="10">
         <v>40930</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="C94" s="16" t="s">
         <v>97</v>
       </c>
       <c r="D94" s="16" t="s">
@@ -4790,7 +4824,7 @@
       <c r="B95" s="11">
         <v>40971</v>
       </c>
-      <c r="C95" s="21" t="s">
+      <c r="C95" s="17" t="s">
         <v>97</v>
       </c>
       <c r="D95" s="17" t="s">
@@ -4825,7 +4859,7 @@
       <c r="B96" s="10">
         <v>41214</v>
       </c>
-      <c r="C96" s="20" t="s">
+      <c r="C96" s="16" t="s">
         <v>97</v>
       </c>
       <c r="D96" s="16" t="s">
@@ -4860,7 +4894,7 @@
       <c r="B97" s="11">
         <v>39819</v>
       </c>
-      <c r="C97" s="21" t="s">
+      <c r="C97" s="17" t="s">
         <v>104</v>
       </c>
       <c r="D97" s="17" t="s">
@@ -4895,7 +4929,7 @@
       <c r="B98" s="10">
         <v>40403</v>
       </c>
-      <c r="C98" s="20" t="s">
+      <c r="C98" s="16" t="s">
         <v>104</v>
       </c>
       <c r="D98" s="16" t="s">
@@ -4930,7 +4964,7 @@
       <c r="B99" s="11">
         <v>40497</v>
       </c>
-      <c r="C99" s="21" t="s">
+      <c r="C99" s="17" t="s">
         <v>104</v>
       </c>
       <c r="D99" s="17" t="s">
@@ -4965,7 +4999,7 @@
       <c r="B100" s="10">
         <v>40591</v>
       </c>
-      <c r="C100" s="20" t="s">
+      <c r="C100" s="16" t="s">
         <v>104</v>
       </c>
       <c r="D100" s="16" t="s">
@@ -5000,7 +5034,7 @@
       <c r="B101" s="11">
         <v>40824</v>
       </c>
-      <c r="C101" s="21" t="s">
+      <c r="C101" s="17" t="s">
         <v>104</v>
       </c>
       <c r="D101" s="17" t="s">
@@ -5024,7 +5058,7 @@
       <c r="J101" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="K101" s="18">
+      <c r="K101" s="13">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -5035,7 +5069,7 @@
       <c r="B102" s="10">
         <v>41364</v>
       </c>
-      <c r="C102" s="20" t="s">
+      <c r="C102" s="16" t="s">
         <v>104</v>
       </c>
       <c r="D102" s="16" t="s">
@@ -5070,7 +5104,7 @@
       <c r="B103" s="11">
         <v>41405</v>
       </c>
-      <c r="C103" s="21" t="s">
+      <c r="C103" s="17" t="s">
         <v>104</v>
       </c>
       <c r="D103" s="17" t="s">
@@ -5105,7 +5139,7 @@
       <c r="B104" s="10">
         <v>39969</v>
       </c>
-      <c r="C104" s="20" t="s">
+      <c r="C104" s="16" t="s">
         <v>111</v>
       </c>
       <c r="D104" s="16" t="s">
@@ -5140,7 +5174,7 @@
       <c r="B105" s="11">
         <v>40010</v>
       </c>
-      <c r="C105" s="21" t="s">
+      <c r="C105" s="17" t="s">
         <v>111</v>
       </c>
       <c r="D105" s="17" t="s">
@@ -5175,7 +5209,7 @@
       <c r="B106" s="10">
         <v>40253</v>
       </c>
-      <c r="C106" s="20" t="s">
+      <c r="C106" s="16" t="s">
         <v>111</v>
       </c>
       <c r="D106" s="16" t="s">
@@ -5210,7 +5244,7 @@
       <c r="B107" s="11">
         <v>40837</v>
       </c>
-      <c r="C107" s="21" t="s">
+      <c r="C107" s="17" t="s">
         <v>111</v>
       </c>
       <c r="D107" s="17" t="s">
@@ -5235,7 +5269,7 @@
         <v>117</v>
       </c>
       <c r="K107" s="13">
-        <v>1.9800000190734863</v>
+        <v>-1.9800000190734863</v>
       </c>
     </row>
     <row r="108">
@@ -5245,7 +5279,7 @@
       <c r="B108" s="10">
         <v>40931</v>
       </c>
-      <c r="C108" s="20" t="s">
+      <c r="C108" s="16" t="s">
         <v>111</v>
       </c>
       <c r="D108" s="16" t="s">
@@ -5280,7 +5314,7 @@
       <c r="B109" s="11">
         <v>41025</v>
       </c>
-      <c r="C109" s="21" t="s">
+      <c r="C109" s="17" t="s">
         <v>111</v>
       </c>
       <c r="D109" s="17" t="s">
@@ -5315,7 +5349,7 @@
       <c r="B110" s="10">
         <v>41258</v>
       </c>
-      <c r="C110" s="20" t="s">
+      <c r="C110" s="16" t="s">
         <v>111</v>
       </c>
       <c r="D110" s="16" t="s">
@@ -5339,8 +5373,8 @@
       <c r="J110" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="K110" s="18">
-        <v>0.99000000953674316</v>
+      <c r="K110" s="22">
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -5350,7 +5384,7 @@
       <c r="B111" s="11">
         <v>39863</v>
       </c>
-      <c r="C111" s="21" t="s">
+      <c r="C111" s="17" t="s">
         <v>118</v>
       </c>
       <c r="D111" s="17" t="s">
@@ -5374,7 +5408,7 @@
       <c r="J111" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="K111" s="18">
+      <c r="K111" s="13">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -5385,7 +5419,7 @@
       <c r="B112" s="10">
         <v>40403</v>
       </c>
-      <c r="C112" s="20" t="s">
+      <c r="C112" s="16" t="s">
         <v>118</v>
       </c>
       <c r="D112" s="16" t="s">
@@ -5420,7 +5454,7 @@
       <c r="B113" s="11">
         <v>40444</v>
       </c>
-      <c r="C113" s="21" t="s">
+      <c r="C113" s="17" t="s">
         <v>118</v>
       </c>
       <c r="D113" s="17" t="s">
@@ -5455,7 +5489,7 @@
       <c r="B114" s="10">
         <v>40687</v>
       </c>
-      <c r="C114" s="20" t="s">
+      <c r="C114" s="16" t="s">
         <v>118</v>
       </c>
       <c r="D114" s="16" t="s">
@@ -5490,7 +5524,7 @@
       <c r="B115" s="11">
         <v>41271</v>
       </c>
-      <c r="C115" s="21" t="s">
+      <c r="C115" s="17" t="s">
         <v>118</v>
       </c>
       <c r="D115" s="17" t="s">
@@ -5525,7 +5559,7 @@
       <c r="B116" s="10">
         <v>41365</v>
       </c>
-      <c r="C116" s="20" t="s">
+      <c r="C116" s="16" t="s">
         <v>118</v>
       </c>
       <c r="D116" s="16" t="s">
@@ -5560,7 +5594,7 @@
       <c r="B117" s="11">
         <v>41459</v>
       </c>
-      <c r="C117" s="21" t="s">
+      <c r="C117" s="17" t="s">
         <v>118</v>
       </c>
       <c r="D117" s="17" t="s">
@@ -5595,7 +5629,7 @@
       <c r="B118" s="10">
         <v>39876</v>
       </c>
-      <c r="C118" s="20" t="s">
+      <c r="C118" s="16" t="s">
         <v>126</v>
       </c>
       <c r="D118" s="16" t="s">
@@ -5630,7 +5664,7 @@
       <c r="B119" s="11">
         <v>39970</v>
       </c>
-      <c r="C119" s="21" t="s">
+      <c r="C119" s="17" t="s">
         <v>126</v>
       </c>
       <c r="D119" s="17" t="s">
@@ -5665,7 +5699,7 @@
       <c r="B120" s="10">
         <v>40064</v>
       </c>
-      <c r="C120" s="20" t="s">
+      <c r="C120" s="16" t="s">
         <v>126</v>
       </c>
       <c r="D120" s="16" t="s">
@@ -5700,7 +5734,7 @@
       <c r="B121" s="11">
         <v>40297</v>
       </c>
-      <c r="C121" s="21" t="s">
+      <c r="C121" s="17" t="s">
         <v>126</v>
       </c>
       <c r="D121" s="17" t="s">
@@ -5724,7 +5758,7 @@
       <c r="J121" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="K121" s="18">
+      <c r="K121" s="13">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -5735,7 +5769,7 @@
       <c r="B122" s="10">
         <v>40837</v>
       </c>
-      <c r="C122" s="20" t="s">
+      <c r="C122" s="16" t="s">
         <v>126</v>
       </c>
       <c r="D122" s="16" t="s">
@@ -5770,7 +5804,7 @@
       <c r="B123" s="11">
         <v>40878</v>
       </c>
-      <c r="C123" s="21" t="s">
+      <c r="C123" s="17" t="s">
         <v>126</v>
       </c>
       <c r="D123" s="17" t="s">
@@ -5805,7 +5839,7 @@
       <c r="B124" s="10">
         <v>41121</v>
       </c>
-      <c r="C124" s="20" t="s">
+      <c r="C124" s="16" t="s">
         <v>126</v>
       </c>
       <c r="D124" s="16" t="s">
@@ -5840,7 +5874,7 @@
       <c r="B125" s="11">
         <v>40310</v>
       </c>
-      <c r="C125" s="21" t="s">
+      <c r="C125" s="17" t="s">
         <v>133</v>
       </c>
       <c r="D125" s="17" t="s">
@@ -5875,7 +5909,7 @@
       <c r="B126" s="10">
         <v>40404</v>
       </c>
-      <c r="C126" s="20" t="s">
+      <c r="C126" s="16" t="s">
         <v>133</v>
       </c>
       <c r="D126" s="16" t="s">
@@ -5910,7 +5944,7 @@
       <c r="B127" s="11">
         <v>40498</v>
       </c>
-      <c r="C127" s="21" t="s">
+      <c r="C127" s="17" t="s">
         <v>133</v>
       </c>
       <c r="D127" s="17" t="s">
@@ -5945,7 +5979,7 @@
       <c r="B128" s="10">
         <v>40731</v>
       </c>
-      <c r="C128" s="20" t="s">
+      <c r="C128" s="16" t="s">
         <v>133</v>
       </c>
       <c r="D128" s="16" t="s">
@@ -5969,7 +6003,7 @@
       <c r="J128" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="K128" s="18">
+      <c r="K128" s="12">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -5980,7 +6014,7 @@
       <c r="B129" s="11">
         <v>41271</v>
       </c>
-      <c r="C129" s="21" t="s">
+      <c r="C129" s="17" t="s">
         <v>133</v>
       </c>
       <c r="D129" s="17" t="s">
@@ -6015,7 +6049,7 @@
       <c r="B130" s="10">
         <v>41312</v>
       </c>
-      <c r="C130" s="20" t="s">
+      <c r="C130" s="16" t="s">
         <v>133</v>
       </c>
       <c r="D130" s="16" t="s">
@@ -6050,7 +6084,7 @@
       <c r="B131" s="11">
         <v>41555</v>
       </c>
-      <c r="C131" s="21" t="s">
+      <c r="C131" s="17" t="s">
         <v>133</v>
       </c>
       <c r="D131" s="17" t="s">
@@ -6085,7 +6119,7 @@
       <c r="B132" s="10">
         <v>39876</v>
       </c>
-      <c r="C132" s="20" t="s">
+      <c r="C132" s="16" t="s">
         <v>140</v>
       </c>
       <c r="D132" s="16" t="s">
@@ -6120,7 +6154,7 @@
       <c r="B133" s="11">
         <v>39917</v>
       </c>
-      <c r="C133" s="21" t="s">
+      <c r="C133" s="17" t="s">
         <v>140</v>
       </c>
       <c r="D133" s="17" t="s">
@@ -6155,7 +6189,7 @@
       <c r="B134" s="10">
         <v>40160</v>
       </c>
-      <c r="C134" s="20" t="s">
+      <c r="C134" s="16" t="s">
         <v>140</v>
       </c>
       <c r="D134" s="16" t="s">
@@ -6190,7 +6224,7 @@
       <c r="B135" s="11">
         <v>40744</v>
       </c>
-      <c r="C135" s="21" t="s">
+      <c r="C135" s="17" t="s">
         <v>140</v>
       </c>
       <c r="D135" s="17" t="s">
@@ -6225,7 +6259,7 @@
       <c r="B136" s="10">
         <v>40838</v>
       </c>
-      <c r="C136" s="20" t="s">
+      <c r="C136" s="16" t="s">
         <v>140</v>
       </c>
       <c r="D136" s="16" t="s">
@@ -6260,7 +6294,7 @@
       <c r="B137" s="11">
         <v>40932</v>
       </c>
-      <c r="C137" s="21" t="s">
+      <c r="C137" s="17" t="s">
         <v>140</v>
       </c>
       <c r="D137" s="17" t="s">
@@ -6295,7 +6329,7 @@
       <c r="B138" s="10">
         <v>41165</v>
       </c>
-      <c r="C138" s="20" t="s">
+      <c r="C138" s="16" t="s">
         <v>140</v>
       </c>
       <c r="D138" s="16" t="s">
@@ -6330,7 +6364,7 @@
       <c r="B139" s="11">
         <v>40310</v>
       </c>
-      <c r="C139" s="21" t="s">
+      <c r="C139" s="17" t="s">
         <v>146</v>
       </c>
       <c r="D139" s="17" t="s">
@@ -6365,7 +6399,7 @@
       <c r="B140" s="10">
         <v>40351</v>
       </c>
-      <c r="C140" s="20" t="s">
+      <c r="C140" s="16" t="s">
         <v>146</v>
       </c>
       <c r="D140" s="16" t="s">
@@ -6400,7 +6434,7 @@
       <c r="B141" s="11">
         <v>40594</v>
       </c>
-      <c r="C141" s="21" t="s">
+      <c r="C141" s="17" t="s">
         <v>146</v>
       </c>
       <c r="D141" s="17" t="s">
@@ -6435,7 +6469,7 @@
       <c r="B142" s="10">
         <v>41178</v>
       </c>
-      <c r="C142" s="20" t="s">
+      <c r="C142" s="16" t="s">
         <v>146</v>
       </c>
       <c r="D142" s="16" t="s">
@@ -6470,7 +6504,7 @@
       <c r="B143" s="11">
         <v>41272</v>
       </c>
-      <c r="C143" s="21" t="s">
+      <c r="C143" s="17" t="s">
         <v>146</v>
       </c>
       <c r="D143" s="17" t="s">
@@ -6505,7 +6539,7 @@
       <c r="B144" s="10">
         <v>41366</v>
       </c>
-      <c r="C144" s="20" t="s">
+      <c r="C144" s="16" t="s">
         <v>146</v>
       </c>
       <c r="D144" s="16" t="s">
@@ -6540,7 +6574,7 @@
       <c r="B145" s="11">
         <v>41599</v>
       </c>
-      <c r="C145" s="21" t="s">
+      <c r="C145" s="17" t="s">
         <v>146</v>
       </c>
       <c r="D145" s="17" t="s">
@@ -6564,7 +6598,7 @@
       <c r="J145" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="K145" s="18">
+      <c r="K145" s="13">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -6575,7 +6609,7 @@
       <c r="B146" s="10">
         <v>39877</v>
       </c>
-      <c r="C146" s="20" t="s">
+      <c r="C146" s="16" t="s">
         <v>151</v>
       </c>
       <c r="D146" s="16" t="s">
@@ -6610,7 +6644,7 @@
       <c r="B147" s="11">
         <v>39971</v>
       </c>
-      <c r="C147" s="21" t="s">
+      <c r="C147" s="17" t="s">
         <v>151</v>
       </c>
       <c r="D147" s="17" t="s">
@@ -6645,7 +6679,7 @@
       <c r="B148" s="10">
         <v>40204</v>
       </c>
-      <c r="C148" s="20" t="s">
+      <c r="C148" s="16" t="s">
         <v>151</v>
       </c>
       <c r="D148" s="16" t="s">
@@ -6669,7 +6703,7 @@
       <c r="J148" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="K148" s="18">
+      <c r="K148" s="12">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -6680,7 +6714,7 @@
       <c r="B149" s="11">
         <v>40744</v>
       </c>
-      <c r="C149" s="21" t="s">
+      <c r="C149" s="17" t="s">
         <v>151</v>
       </c>
       <c r="D149" s="17" t="s">
@@ -6715,7 +6749,7 @@
       <c r="B150" s="10">
         <v>40785</v>
       </c>
-      <c r="C150" s="20" t="s">
+      <c r="C150" s="16" t="s">
         <v>151</v>
       </c>
       <c r="D150" s="16" t="s">
@@ -6750,7 +6784,7 @@
       <c r="B151" s="11">
         <v>41028</v>
       </c>
-      <c r="C151" s="21" t="s">
+      <c r="C151" s="17" t="s">
         <v>151</v>
       </c>
       <c r="D151" s="17" t="s">
@@ -6785,7 +6819,7 @@
       <c r="B152" s="10">
         <v>41612</v>
       </c>
-      <c r="C152" s="20" t="s">
+      <c r="C152" s="16" t="s">
         <v>151</v>
       </c>
       <c r="D152" s="16" t="s">
@@ -6820,7 +6854,7 @@
       <c r="B153" s="11">
         <v>40217</v>
       </c>
-      <c r="C153" s="21" t="s">
+      <c r="C153" s="17" t="s">
         <v>158</v>
       </c>
       <c r="D153" s="17" t="s">
@@ -6855,7 +6889,7 @@
       <c r="B154" s="10">
         <v>40311</v>
       </c>
-      <c r="C154" s="20" t="s">
+      <c r="C154" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D154" s="16" t="s">
@@ -6890,7 +6924,7 @@
       <c r="B155" s="11">
         <v>40405</v>
       </c>
-      <c r="C155" s="21" t="s">
+      <c r="C155" s="17" t="s">
         <v>158</v>
       </c>
       <c r="D155" s="17" t="s">
@@ -6925,7 +6959,7 @@
       <c r="B156" s="10">
         <v>40638</v>
       </c>
-      <c r="C156" s="20" t="s">
+      <c r="C156" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D156" s="16" t="s">
@@ -6949,7 +6983,7 @@
       <c r="J156" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="K156" s="18">
+      <c r="K156" s="12">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -6960,7 +6994,7 @@
       <c r="B157" s="11">
         <v>41178</v>
       </c>
-      <c r="C157" s="21" t="s">
+      <c r="C157" s="17" t="s">
         <v>158</v>
       </c>
       <c r="D157" s="17" t="s">
@@ -6995,7 +7029,7 @@
       <c r="B158" s="10">
         <v>41219</v>
       </c>
-      <c r="C158" s="20" t="s">
+      <c r="C158" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D158" s="16" t="s">
@@ -7030,7 +7064,7 @@
       <c r="B159" s="11">
         <v>41462</v>
       </c>
-      <c r="C159" s="21" t="s">
+      <c r="C159" s="17" t="s">
         <v>158</v>
       </c>
       <c r="D159" s="17" t="s">
@@ -7065,7 +7099,7 @@
       <c r="B160" s="10">
         <v>39824</v>
       </c>
-      <c r="C160" s="20" t="s">
+      <c r="C160" s="16" t="s">
         <v>165</v>
       </c>
       <c r="D160" s="16" t="s">
@@ -7100,7 +7134,7 @@
       <c r="B161" s="11">
         <v>40067</v>
       </c>
-      <c r="C161" s="21" t="s">
+      <c r="C161" s="17" t="s">
         <v>165</v>
       </c>
       <c r="D161" s="17" t="s">
@@ -7135,7 +7169,7 @@
       <c r="B162" s="10">
         <v>40651</v>
       </c>
-      <c r="C162" s="20" t="s">
+      <c r="C162" s="16" t="s">
         <v>165</v>
       </c>
       <c r="D162" s="16" t="s">
@@ -7170,7 +7204,7 @@
       <c r="B163" s="11">
         <v>40745</v>
       </c>
-      <c r="C163" s="21" t="s">
+      <c r="C163" s="17" t="s">
         <v>165</v>
       </c>
       <c r="D163" s="17" t="s">
@@ -7205,7 +7239,7 @@
       <c r="B164" s="10">
         <v>40839</v>
       </c>
-      <c r="C164" s="20" t="s">
+      <c r="C164" s="16" t="s">
         <v>165</v>
       </c>
       <c r="D164" s="16" t="s">
@@ -7240,7 +7274,7 @@
       <c r="B165" s="11">
         <v>41072</v>
       </c>
-      <c r="C165" s="21" t="s">
+      <c r="C165" s="17" t="s">
         <v>165</v>
       </c>
       <c r="D165" s="17" t="s">
@@ -7264,7 +7298,7 @@
       <c r="J165" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="K165" s="18">
+      <c r="K165" s="13">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -7275,7 +7309,7 @@
       <c r="B166" s="10">
         <v>41612</v>
       </c>
-      <c r="C166" s="20" t="s">
+      <c r="C166" s="16" t="s">
         <v>165</v>
       </c>
       <c r="D166" s="16" t="s">
@@ -7310,7 +7344,7 @@
       <c r="B167" s="11">
         <v>40217</v>
       </c>
-      <c r="C167" s="21" t="s">
+      <c r="C167" s="17" t="s">
         <v>172</v>
       </c>
       <c r="D167" s="17" t="s">
@@ -7345,7 +7379,7 @@
       <c r="B168" s="10">
         <v>40258</v>
       </c>
-      <c r="C168" s="20" t="s">
+      <c r="C168" s="16" t="s">
         <v>172</v>
       </c>
       <c r="D168" s="16" t="s">
@@ -7380,7 +7414,7 @@
       <c r="B169" s="11">
         <v>40501</v>
       </c>
-      <c r="C169" s="21" t="s">
+      <c r="C169" s="17" t="s">
         <v>172</v>
       </c>
       <c r="D169" s="17" t="s">
@@ -7415,7 +7449,7 @@
       <c r="B170" s="10">
         <v>41085</v>
       </c>
-      <c r="C170" s="20" t="s">
+      <c r="C170" s="16" t="s">
         <v>172</v>
       </c>
       <c r="D170" s="16" t="s">
@@ -7450,7 +7484,7 @@
       <c r="B171" s="11">
         <v>41179</v>
       </c>
-      <c r="C171" s="21" t="s">
+      <c r="C171" s="17" t="s">
         <v>172</v>
       </c>
       <c r="D171" s="17" t="s">
@@ -7485,7 +7519,7 @@
       <c r="B172" s="10">
         <v>41273</v>
       </c>
-      <c r="C172" s="20" t="s">
+      <c r="C172" s="16" t="s">
         <v>172</v>
       </c>
       <c r="D172" s="16" t="s">
@@ -7520,7 +7554,7 @@
       <c r="B173" s="11">
         <v>41506</v>
       </c>
-      <c r="C173" s="21" t="s">
+      <c r="C173" s="17" t="s">
         <v>172</v>
       </c>
       <c r="D173" s="17" t="s">
@@ -7544,7 +7578,7 @@
       <c r="J173" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="K173" s="18">
+      <c r="K173" s="13">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -7555,7 +7589,7 @@
       <c r="B174" s="10">
         <v>39878</v>
       </c>
-      <c r="C174" s="20" t="s">
+      <c r="C174" s="16" t="s">
         <v>179</v>
       </c>
       <c r="D174" s="16" t="s">
@@ -7590,7 +7624,7 @@
       <c r="B175" s="11">
         <v>40111</v>
       </c>
-      <c r="C175" s="21" t="s">
+      <c r="C175" s="17" t="s">
         <v>179</v>
       </c>
       <c r="D175" s="17" t="s">
@@ -7614,7 +7648,7 @@
       <c r="J175" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="K175" s="18">
+      <c r="K175" s="13">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -7625,7 +7659,7 @@
       <c r="B176" s="10">
         <v>40651</v>
       </c>
-      <c r="C176" s="20" t="s">
+      <c r="C176" s="16" t="s">
         <v>179</v>
       </c>
       <c r="D176" s="16" t="s">
@@ -7660,7 +7694,7 @@
       <c r="B177" s="11">
         <v>40692</v>
       </c>
-      <c r="C177" s="21" t="s">
+      <c r="C177" s="17" t="s">
         <v>179</v>
       </c>
       <c r="D177" s="17" t="s">
@@ -7695,7 +7729,7 @@
       <c r="B178" s="10">
         <v>40935</v>
       </c>
-      <c r="C178" s="20" t="s">
+      <c r="C178" s="16" t="s">
         <v>179</v>
       </c>
       <c r="D178" s="16" t="s">
@@ -7730,7 +7764,7 @@
       <c r="B179" s="11">
         <v>41519</v>
       </c>
-      <c r="C179" s="21" t="s">
+      <c r="C179" s="17" t="s">
         <v>179</v>
       </c>
       <c r="D179" s="17" t="s">
@@ -7765,7 +7799,7 @@
       <c r="B180" s="10">
         <v>41613</v>
       </c>
-      <c r="C180" s="20" t="s">
+      <c r="C180" s="16" t="s">
         <v>179</v>
       </c>
       <c r="D180" s="16" t="s">
@@ -7800,7 +7834,7 @@
       <c r="B181" s="11">
         <v>40124</v>
       </c>
-      <c r="C181" s="21" t="s">
+      <c r="C181" s="17" t="s">
         <v>186</v>
       </c>
       <c r="D181" s="17" t="s">
@@ -7835,7 +7869,7 @@
       <c r="B182" s="10">
         <v>40218</v>
       </c>
-      <c r="C182" s="20" t="s">
+      <c r="C182" s="16" t="s">
         <v>186</v>
       </c>
       <c r="D182" s="16" t="s">
@@ -7870,7 +7904,7 @@
       <c r="B183" s="11">
         <v>40312</v>
       </c>
-      <c r="C183" s="21" t="s">
+      <c r="C183" s="17" t="s">
         <v>186</v>
       </c>
       <c r="D183" s="17" t="s">
@@ -7905,7 +7939,7 @@
       <c r="B184" s="10">
         <v>40545</v>
       </c>
-      <c r="C184" s="20" t="s">
+      <c r="C184" s="16" t="s">
         <v>186</v>
       </c>
       <c r="D184" s="16" t="s">
@@ -7929,7 +7963,7 @@
       <c r="J184" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="K184" s="18">
+      <c r="K184" s="12">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -7940,7 +7974,7 @@
       <c r="B185" s="11">
         <v>41085</v>
       </c>
-      <c r="C185" s="21" t="s">
+      <c r="C185" s="17" t="s">
         <v>186</v>
       </c>
       <c r="D185" s="17" t="s">
@@ -7975,7 +8009,7 @@
       <c r="B186" s="10">
         <v>41126</v>
       </c>
-      <c r="C186" s="20" t="s">
+      <c r="C186" s="16" t="s">
         <v>186</v>
       </c>
       <c r="D186" s="16" t="s">
@@ -8010,7 +8044,7 @@
       <c r="B187" s="11">
         <v>41369</v>
       </c>
-      <c r="C187" s="21" t="s">
+      <c r="C187" s="17" t="s">
         <v>186</v>
       </c>
       <c r="D187" s="17" t="s">
@@ -8045,7 +8079,7 @@
       <c r="B188" s="10">
         <v>39974</v>
       </c>
-      <c r="C188" s="20" t="s">
+      <c r="C188" s="16" t="s">
         <v>193</v>
       </c>
       <c r="D188" s="16" t="s">
@@ -8080,7 +8114,7 @@
       <c r="B189" s="11">
         <v>40558</v>
       </c>
-      <c r="C189" s="21" t="s">
+      <c r="C189" s="17" t="s">
         <v>193</v>
       </c>
       <c r="D189" s="17" t="s">
@@ -8115,7 +8149,7 @@
       <c r="B190" s="10">
         <v>40652</v>
       </c>
-      <c r="C190" s="20" t="s">
+      <c r="C190" s="16" t="s">
         <v>193</v>
       </c>
       <c r="D190" s="16" t="s">
@@ -8150,7 +8184,7 @@
       <c r="B191" s="11">
         <v>40746</v>
       </c>
-      <c r="C191" s="21" t="s">
+      <c r="C191" s="17" t="s">
         <v>193</v>
       </c>
       <c r="D191" s="17" t="s">
@@ -8185,7 +8219,7 @@
       <c r="B192" s="10">
         <v>40979</v>
       </c>
-      <c r="C192" s="20" t="s">
+      <c r="C192" s="16" t="s">
         <v>193</v>
       </c>
       <c r="D192" s="16" t="s">
@@ -8209,7 +8243,7 @@
       <c r="J192" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="K192" s="18">
+      <c r="K192" s="12">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -8220,7 +8254,7 @@
       <c r="B193" s="11">
         <v>41519</v>
       </c>
-      <c r="C193" s="21" t="s">
+      <c r="C193" s="17" t="s">
         <v>193</v>
       </c>
       <c r="D193" s="17" t="s">
@@ -8255,7 +8289,7 @@
       <c r="B194" s="10">
         <v>41560</v>
       </c>
-      <c r="C194" s="20" t="s">
+      <c r="C194" s="16" t="s">
         <v>193</v>
       </c>
       <c r="D194" s="16" t="s">
@@ -8290,7 +8324,7 @@
       <c r="B195" s="11">
         <v>40124</v>
       </c>
-      <c r="C195" s="21" t="s">
+      <c r="C195" s="17" t="s">
         <v>200</v>
       </c>
       <c r="D195" s="17" t="s">
@@ -8325,7 +8359,7 @@
       <c r="B196" s="10">
         <v>40165</v>
       </c>
-      <c r="C196" s="20" t="s">
+      <c r="C196" s="16" t="s">
         <v>200</v>
       </c>
       <c r="D196" s="16" t="s">
@@ -8360,7 +8394,7 @@
       <c r="B197" s="11">
         <v>40408</v>
       </c>
-      <c r="C197" s="21" t="s">
+      <c r="C197" s="17" t="s">
         <v>200</v>
       </c>
       <c r="D197" s="17" t="s">
@@ -8395,7 +8429,7 @@
       <c r="B198" s="10">
         <v>40992</v>
       </c>
-      <c r="C198" s="20" t="s">
+      <c r="C198" s="16" t="s">
         <v>200</v>
       </c>
       <c r="D198" s="16" t="s">
@@ -8430,7 +8464,7 @@
       <c r="B199" s="11">
         <v>41086</v>
       </c>
-      <c r="C199" s="21" t="s">
+      <c r="C199" s="17" t="s">
         <v>200</v>
       </c>
       <c r="D199" s="17" t="s">
@@ -8465,7 +8499,7 @@
       <c r="B200" s="10">
         <v>41180</v>
       </c>
-      <c r="C200" s="20" t="s">
+      <c r="C200" s="16" t="s">
         <v>200</v>
       </c>
       <c r="D200" s="16" t="s">
@@ -8500,7 +8534,7 @@
       <c r="B201" s="11">
         <v>41413</v>
       </c>
-      <c r="C201" s="21" t="s">
+      <c r="C201" s="17" t="s">
         <v>200</v>
       </c>
       <c r="D201" s="17" t="s">
@@ -8524,7 +8558,7 @@
       <c r="J201" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="K201" s="18">
+      <c r="K201" s="13">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -8535,7 +8569,7 @@
       <c r="B202" s="10">
         <v>40018</v>
       </c>
-      <c r="C202" s="20" t="s">
+      <c r="C202" s="16" t="s">
         <v>207</v>
       </c>
       <c r="D202" s="16" t="s">
@@ -8559,7 +8593,7 @@
       <c r="J202" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="K202" s="18">
+      <c r="K202" s="12">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -8570,7 +8604,7 @@
       <c r="B203" s="11">
         <v>40558</v>
       </c>
-      <c r="C203" s="21" t="s">
+      <c r="C203" s="17" t="s">
         <v>207</v>
       </c>
       <c r="D203" s="17" t="s">
@@ -8605,7 +8639,7 @@
       <c r="B204" s="10">
         <v>40599</v>
       </c>
-      <c r="C204" s="20" t="s">
+      <c r="C204" s="16" t="s">
         <v>207</v>
       </c>
       <c r="D204" s="16" t="s">
@@ -8640,7 +8674,7 @@
       <c r="B205" s="11">
         <v>40842</v>
       </c>
-      <c r="C205" s="21" t="s">
+      <c r="C205" s="17" t="s">
         <v>207</v>
       </c>
       <c r="D205" s="17" t="s">
@@ -8675,7 +8709,7 @@
       <c r="B206" s="10">
         <v>41426</v>
       </c>
-      <c r="C206" s="20" t="s">
+      <c r="C206" s="16" t="s">
         <v>207</v>
       </c>
       <c r="D206" s="16" t="s">
@@ -8710,7 +8744,7 @@
       <c r="B207" s="11">
         <v>41520</v>
       </c>
-      <c r="C207" s="21" t="s">
+      <c r="C207" s="17" t="s">
         <v>207</v>
       </c>
       <c r="D207" s="17" t="s">
@@ -8745,7 +8779,7 @@
       <c r="B208" s="10">
         <v>41614</v>
       </c>
-      <c r="C208" s="20" t="s">
+      <c r="C208" s="16" t="s">
         <v>207</v>
       </c>
       <c r="D208" s="16" t="s">
@@ -8780,7 +8814,7 @@
       <c r="B209" s="11">
         <v>40031</v>
       </c>
-      <c r="C209" s="21" t="s">
+      <c r="C209" s="17" t="s">
         <v>214</v>
       </c>
       <c r="D209" s="17" t="s">
@@ -8815,7 +8849,7 @@
       <c r="B210" s="10">
         <v>40125</v>
       </c>
-      <c r="C210" s="20" t="s">
+      <c r="C210" s="16" t="s">
         <v>214</v>
       </c>
       <c r="D210" s="16" t="s">
@@ -8850,7 +8884,7 @@
       <c r="B211" s="11">
         <v>40219</v>
       </c>
-      <c r="C211" s="21" t="s">
+      <c r="C211" s="17" t="s">
         <v>214</v>
       </c>
       <c r="D211" s="17" t="s">
@@ -8885,7 +8919,7 @@
       <c r="B212" s="10">
         <v>40452</v>
       </c>
-      <c r="C212" s="20" t="s">
+      <c r="C212" s="16" t="s">
         <v>214</v>
       </c>
       <c r="D212" s="16" t="s">
@@ -8909,7 +8943,7 @@
       <c r="J212" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="K212" s="18">
+      <c r="K212" s="12">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -8920,7 +8954,7 @@
       <c r="B213" s="11">
         <v>40992</v>
       </c>
-      <c r="C213" s="21" t="s">
+      <c r="C213" s="17" t="s">
         <v>214</v>
       </c>
       <c r="D213" s="17" t="s">
@@ -8955,7 +8989,7 @@
       <c r="B214" s="10">
         <v>41033</v>
       </c>
-      <c r="C214" s="20" t="s">
+      <c r="C214" s="16" t="s">
         <v>214</v>
       </c>
       <c r="D214" s="16" t="s">
@@ -8990,7 +9024,7 @@
       <c r="B215" s="11">
         <v>41276</v>
       </c>
-      <c r="C215" s="21" t="s">
+      <c r="C215" s="17" t="s">
         <v>214</v>
       </c>
       <c r="D215" s="17" t="s">
@@ -9025,7 +9059,7 @@
       <c r="B216" s="10">
         <v>39881</v>
       </c>
-      <c r="C216" s="20" t="s">
+      <c r="C216" s="16" t="s">
         <v>220</v>
       </c>
       <c r="D216" s="16" t="s">
@@ -9060,7 +9094,7 @@
       <c r="B217" s="11">
         <v>40465</v>
       </c>
-      <c r="C217" s="21" t="s">
+      <c r="C217" s="17" t="s">
         <v>220</v>
       </c>
       <c r="D217" s="17" t="s">
@@ -9095,7 +9129,7 @@
       <c r="B218" s="10">
         <v>40559</v>
       </c>
-      <c r="C218" s="20" t="s">
+      <c r="C218" s="16" t="s">
         <v>220</v>
       </c>
       <c r="D218" s="16" t="s">
@@ -9130,7 +9164,7 @@
       <c r="B219" s="11">
         <v>40653</v>
       </c>
-      <c r="C219" s="21" t="s">
+      <c r="C219" s="17" t="s">
         <v>220</v>
       </c>
       <c r="D219" s="17" t="s">
@@ -9165,7 +9199,7 @@
       <c r="B220" s="10">
         <v>40886</v>
       </c>
-      <c r="C220" s="20" t="s">
+      <c r="C220" s="16" t="s">
         <v>220</v>
       </c>
       <c r="D220" s="16" t="s">
@@ -9189,7 +9223,7 @@
       <c r="J220" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="K220" s="18">
+      <c r="K220" s="12">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -9200,7 +9234,7 @@
       <c r="B221" s="11">
         <v>41426</v>
       </c>
-      <c r="C221" s="21" t="s">
+      <c r="C221" s="17" t="s">
         <v>220</v>
       </c>
       <c r="D221" s="17" t="s">
@@ -9235,7 +9269,7 @@
       <c r="B222" s="10">
         <v>41467</v>
       </c>
-      <c r="C222" s="20" t="s">
+      <c r="C222" s="16" t="s">
         <v>220</v>
       </c>
       <c r="D222" s="16" t="s">
@@ -9270,7 +9304,7 @@
       <c r="B223" s="11">
         <v>40031</v>
       </c>
-      <c r="C223" s="21" t="s">
+      <c r="C223" s="17" t="s">
         <v>227</v>
       </c>
       <c r="D223" s="17" t="s">
@@ -9305,7 +9339,7 @@
       <c r="B224" s="10">
         <v>40072</v>
       </c>
-      <c r="C224" s="20" t="s">
+      <c r="C224" s="16" t="s">
         <v>227</v>
       </c>
       <c r="D224" s="16" t="s">
@@ -9340,7 +9374,7 @@
       <c r="B225" s="11">
         <v>40315</v>
       </c>
-      <c r="C225" s="21" t="s">
+      <c r="C225" s="17" t="s">
         <v>227</v>
       </c>
       <c r="D225" s="17" t="s">
@@ -9375,7 +9409,7 @@
       <c r="B226" s="10">
         <v>40899</v>
       </c>
-      <c r="C226" s="20" t="s">
+      <c r="C226" s="16" t="s">
         <v>227</v>
       </c>
       <c r="D226" s="16" t="s">
@@ -9410,7 +9444,7 @@
       <c r="B227" s="11">
         <v>40993</v>
       </c>
-      <c r="C227" s="21" t="s">
+      <c r="C227" s="17" t="s">
         <v>227</v>
       </c>
       <c r="D227" s="17" t="s">
@@ -9445,7 +9479,7 @@
       <c r="B228" s="10">
         <v>41087</v>
       </c>
-      <c r="C228" s="20" t="s">
+      <c r="C228" s="16" t="s">
         <v>227</v>
       </c>
       <c r="D228" s="16" t="s">
@@ -9480,7 +9514,7 @@
       <c r="B229" s="11">
         <v>41320</v>
       </c>
-      <c r="C229" s="21" t="s">
+      <c r="C229" s="17" t="s">
         <v>227</v>
       </c>
       <c r="D229" s="17" t="s">
@@ -9504,7 +9538,7 @@
       <c r="J229" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="K229" s="18">
+      <c r="K229" s="13">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -9515,7 +9549,7 @@
       <c r="B230" s="10">
         <v>39925</v>
       </c>
-      <c r="C230" s="20" t="s">
+      <c r="C230" s="16" t="s">
         <v>234</v>
       </c>
       <c r="D230" s="16" t="s">
@@ -9539,7 +9573,7 @@
       <c r="J230" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="K230" s="18">
+      <c r="K230" s="12">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -9550,7 +9584,7 @@
       <c r="B231" s="11">
         <v>40465</v>
       </c>
-      <c r="C231" s="21" t="s">
+      <c r="C231" s="17" t="s">
         <v>234</v>
       </c>
       <c r="D231" s="17" t="s">
@@ -9585,7 +9619,7 @@
       <c r="B232" s="10">
         <v>40506</v>
       </c>
-      <c r="C232" s="20" t="s">
+      <c r="C232" s="16" t="s">
         <v>234</v>
       </c>
       <c r="D232" s="16" t="s">
@@ -9620,7 +9654,7 @@
       <c r="B233" s="11">
         <v>40749</v>
       </c>
-      <c r="C233" s="21" t="s">
+      <c r="C233" s="17" t="s">
         <v>234</v>
       </c>
       <c r="D233" s="17" t="s">
@@ -9655,7 +9689,7 @@
       <c r="B234" s="10">
         <v>41333</v>
       </c>
-      <c r="C234" s="20" t="s">
+      <c r="C234" s="16" t="s">
         <v>234</v>
       </c>
       <c r="D234" s="16" t="s">
@@ -9690,7 +9724,7 @@
       <c r="B235" s="11">
         <v>41427</v>
       </c>
-      <c r="C235" s="21" t="s">
+      <c r="C235" s="17" t="s">
         <v>234</v>
       </c>
       <c r="D235" s="17" t="s">
@@ -9725,7 +9759,7 @@
       <c r="B236" s="10">
         <v>41521</v>
       </c>
-      <c r="C236" s="20" t="s">
+      <c r="C236" s="16" t="s">
         <v>234</v>
       </c>
       <c r="D236" s="16" t="s">
@@ -9760,7 +9794,7 @@
       <c r="B237" s="11">
         <v>39938</v>
       </c>
-      <c r="C237" s="21" t="s">
+      <c r="C237" s="17" t="s">
         <v>241</v>
       </c>
       <c r="D237" s="17" t="s">
@@ -9795,7 +9829,7 @@
       <c r="B238" s="10">
         <v>40032</v>
       </c>
-      <c r="C238" s="20" t="s">
+      <c r="C238" s="16" t="s">
         <v>241</v>
       </c>
       <c r="D238" s="16" t="s">
@@ -9830,7 +9864,7 @@
       <c r="B239" s="11">
         <v>40126</v>
       </c>
-      <c r="C239" s="21" t="s">
+      <c r="C239" s="17" t="s">
         <v>241</v>
       </c>
       <c r="D239" s="17" t="s">
@@ -9865,7 +9899,7 @@
       <c r="B240" s="10">
         <v>40359</v>
       </c>
-      <c r="C240" s="20" t="s">
+      <c r="C240" s="16" t="s">
         <v>241</v>
       </c>
       <c r="D240" s="16" t="s">
@@ -9889,7 +9923,7 @@
       <c r="J240" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="K240" s="18">
+      <c r="K240" s="12">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -9900,7 +9934,7 @@
       <c r="B241" s="11">
         <v>40899</v>
       </c>
-      <c r="C241" s="21" t="s">
+      <c r="C241" s="17" t="s">
         <v>241</v>
       </c>
       <c r="D241" s="17" t="s">
@@ -9935,7 +9969,7 @@
       <c r="B242" s="10">
         <v>40940</v>
       </c>
-      <c r="C242" s="20" t="s">
+      <c r="C242" s="16" t="s">
         <v>241</v>
       </c>
       <c r="D242" s="16" t="s">
@@ -9970,7 +10004,7 @@
       <c r="B243" s="11">
         <v>41183</v>
       </c>
-      <c r="C243" s="21" t="s">
+      <c r="C243" s="17" t="s">
         <v>241</v>
       </c>
       <c r="D243" s="17" t="s">
@@ -10005,7 +10039,7 @@
       <c r="B244" s="10">
         <v>40372</v>
       </c>
-      <c r="C244" s="20" t="s">
+      <c r="C244" s="16" t="s">
         <v>247</v>
       </c>
       <c r="D244" s="16" t="s">
@@ -10040,7 +10074,7 @@
       <c r="B245" s="11">
         <v>40466</v>
       </c>
-      <c r="C245" s="21" t="s">
+      <c r="C245" s="17" t="s">
         <v>247</v>
       </c>
       <c r="D245" s="17" t="s">
@@ -10075,7 +10109,7 @@
       <c r="B246" s="10">
         <v>40560</v>
       </c>
-      <c r="C246" s="20" t="s">
+      <c r="C246" s="16" t="s">
         <v>247</v>
       </c>
       <c r="D246" s="16" t="s">
@@ -10110,7 +10144,7 @@
       <c r="B247" s="11">
         <v>40793</v>
       </c>
-      <c r="C247" s="21" t="s">
+      <c r="C247" s="17" t="s">
         <v>247</v>
       </c>
       <c r="D247" s="17" t="s">
@@ -10134,7 +10168,7 @@
       <c r="J247" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K247" s="18">
+      <c r="K247" s="13">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -10145,7 +10179,7 @@
       <c r="B248" s="10">
         <v>41333</v>
       </c>
-      <c r="C248" s="20" t="s">
+      <c r="C248" s="16" t="s">
         <v>247</v>
       </c>
       <c r="D248" s="16" t="s">
@@ -10180,7 +10214,7 @@
       <c r="B249" s="11">
         <v>41374</v>
       </c>
-      <c r="C249" s="21" t="s">
+      <c r="C249" s="17" t="s">
         <v>247</v>
       </c>
       <c r="D249" s="17" t="s">
@@ -10215,7 +10249,7 @@
       <c r="B250" s="10">
         <v>41617</v>
       </c>
-      <c r="C250" s="20" t="s">
+      <c r="C250" s="16" t="s">
         <v>247</v>
       </c>
       <c r="D250" s="16" t="s">
@@ -10250,7 +10284,7 @@
       <c r="B251" s="11">
         <v>39938</v>
       </c>
-      <c r="C251" s="21" t="s">
+      <c r="C251" s="17" t="s">
         <v>252</v>
       </c>
       <c r="D251" s="17" t="s">
@@ -10285,7 +10319,7 @@
       <c r="B252" s="10">
         <v>39979</v>
       </c>
-      <c r="C252" s="20" t="s">
+      <c r="C252" s="16" t="s">
         <v>252</v>
       </c>
       <c r="D252" s="16" t="s">
@@ -10320,7 +10354,7 @@
       <c r="B253" s="11">
         <v>40222</v>
       </c>
-      <c r="C253" s="21" t="s">
+      <c r="C253" s="17" t="s">
         <v>252</v>
       </c>
       <c r="D253" s="17" t="s">
@@ -10355,7 +10389,7 @@
       <c r="B254" s="10">
         <v>40806</v>
       </c>
-      <c r="C254" s="20" t="s">
+      <c r="C254" s="16" t="s">
         <v>252</v>
       </c>
       <c r="D254" s="16" t="s">
@@ -10390,7 +10424,7 @@
       <c r="B255" s="11">
         <v>40900</v>
       </c>
-      <c r="C255" s="21" t="s">
+      <c r="C255" s="17" t="s">
         <v>252</v>
       </c>
       <c r="D255" s="17" t="s">
@@ -10425,7 +10459,7 @@
       <c r="B256" s="10">
         <v>40994</v>
       </c>
-      <c r="C256" s="20" t="s">
+      <c r="C256" s="16" t="s">
         <v>252</v>
       </c>
       <c r="D256" s="16" t="s">
@@ -10460,7 +10494,7 @@
       <c r="B257" s="11">
         <v>41227</v>
       </c>
-      <c r="C257" s="21" t="s">
+      <c r="C257" s="17" t="s">
         <v>252</v>
       </c>
       <c r="D257" s="17" t="s">
@@ -10484,7 +10518,7 @@
       <c r="J257" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="K257" s="18">
+      <c r="K257" s="13">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -10495,7 +10529,7 @@
       <c r="B258" s="10">
         <v>39832</v>
       </c>
-      <c r="C258" s="20" t="s">
+      <c r="C258" s="16" t="s">
         <v>258</v>
       </c>
       <c r="D258" s="16" t="s">
@@ -10519,7 +10553,7 @@
       <c r="J258" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="K258" s="18">
+      <c r="K258" s="12">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -10530,7 +10564,7 @@
       <c r="B259" s="11">
         <v>40372</v>
       </c>
-      <c r="C259" s="21" t="s">
+      <c r="C259" s="17" t="s">
         <v>258</v>
       </c>
       <c r="D259" s="17" t="s">
@@ -10565,7 +10599,7 @@
       <c r="B260" s="10">
         <v>40413</v>
       </c>
-      <c r="C260" s="20" t="s">
+      <c r="C260" s="16" t="s">
         <v>258</v>
       </c>
       <c r="D260" s="16" t="s">
@@ -10600,7 +10634,7 @@
       <c r="B261" s="11">
         <v>40656</v>
       </c>
-      <c r="C261" s="21" t="s">
+      <c r="C261" s="17" t="s">
         <v>258</v>
       </c>
       <c r="D261" s="17" t="s">
@@ -10635,7 +10669,7 @@
       <c r="B262" s="10">
         <v>41240</v>
       </c>
-      <c r="C262" s="20" t="s">
+      <c r="C262" s="16" t="s">
         <v>258</v>
       </c>
       <c r="D262" s="16" t="s">
@@ -10670,7 +10704,7 @@
       <c r="B263" s="11">
         <v>41334</v>
       </c>
-      <c r="C263" s="21" t="s">
+      <c r="C263" s="17" t="s">
         <v>258</v>
       </c>
       <c r="D263" s="17" t="s">
@@ -10705,7 +10739,7 @@
       <c r="B264" s="10">
         <v>41428</v>
       </c>
-      <c r="C264" s="20" t="s">
+      <c r="C264" s="16" t="s">
         <v>258</v>
       </c>
       <c r="D264" s="16" t="s">
@@ -10740,7 +10774,7 @@
       <c r="B265" s="11">
         <v>39845</v>
       </c>
-      <c r="C265" s="21" t="s">
+      <c r="C265" s="17" t="s">
         <v>264</v>
       </c>
       <c r="D265" s="17" t="s">
@@ -10775,7 +10809,7 @@
       <c r="B266" s="10">
         <v>39939</v>
       </c>
-      <c r="C266" s="20" t="s">
+      <c r="C266" s="16" t="s">
         <v>264</v>
       </c>
       <c r="D266" s="16" t="s">
@@ -10810,7 +10844,7 @@
       <c r="B267" s="11">
         <v>40033</v>
       </c>
-      <c r="C267" s="21" t="s">
+      <c r="C267" s="17" t="s">
         <v>264</v>
       </c>
       <c r="D267" s="17" t="s">
@@ -10845,7 +10879,7 @@
       <c r="B268" s="10">
         <v>40266</v>
       </c>
-      <c r="C268" s="20" t="s">
+      <c r="C268" s="16" t="s">
         <v>264</v>
       </c>
       <c r="D268" s="16" t="s">
@@ -10869,7 +10903,7 @@
       <c r="J268" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="K268" s="18">
+      <c r="K268" s="12">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -10880,7 +10914,7 @@
       <c r="B269" s="11">
         <v>40806</v>
       </c>
-      <c r="C269" s="21" t="s">
+      <c r="C269" s="17" t="s">
         <v>264</v>
       </c>
       <c r="D269" s="17" t="s">
@@ -10915,7 +10949,7 @@
       <c r="B270" s="10">
         <v>40847</v>
       </c>
-      <c r="C270" s="20" t="s">
+      <c r="C270" s="16" t="s">
         <v>264</v>
       </c>
       <c r="D270" s="16" t="s">
@@ -10950,7 +10984,7 @@
       <c r="B271" s="11">
         <v>41090</v>
       </c>
-      <c r="C271" s="21" t="s">
+      <c r="C271" s="17" t="s">
         <v>264</v>
       </c>
       <c r="D271" s="17" t="s">
@@ -10985,7 +11019,7 @@
       <c r="B272" s="10">
         <v>40279</v>
       </c>
-      <c r="C272" s="20" t="s">
+      <c r="C272" s="16" t="s">
         <v>269</v>
       </c>
       <c r="D272" s="16" t="s">
@@ -11020,7 +11054,7 @@
       <c r="B273" s="11">
         <v>40373</v>
       </c>
-      <c r="C273" s="21" t="s">
+      <c r="C273" s="17" t="s">
         <v>269</v>
       </c>
       <c r="D273" s="17" t="s">
@@ -11055,7 +11089,7 @@
       <c r="B274" s="10">
         <v>40467</v>
       </c>
-      <c r="C274" s="20" t="s">
+      <c r="C274" s="16" t="s">
         <v>269</v>
       </c>
       <c r="D274" s="16" t="s">
@@ -11090,7 +11124,7 @@
       <c r="B275" s="11">
         <v>40700</v>
       </c>
-      <c r="C275" s="21" t="s">
+      <c r="C275" s="17" t="s">
         <v>269</v>
       </c>
       <c r="D275" s="17" t="s">
@@ -11125,7 +11159,7 @@
       <c r="B276" s="10">
         <v>41240</v>
       </c>
-      <c r="C276" s="20" t="s">
+      <c r="C276" s="16" t="s">
         <v>269</v>
       </c>
       <c r="D276" s="16" t="s">
@@ -11160,7 +11194,7 @@
       <c r="B277" s="11">
         <v>41281</v>
       </c>
-      <c r="C277" s="21" t="s">
+      <c r="C277" s="17" t="s">
         <v>269</v>
       </c>
       <c r="D277" s="17" t="s">
@@ -11195,7 +11229,7 @@
       <c r="B278" s="10">
         <v>41524</v>
       </c>
-      <c r="C278" s="20" t="s">
+      <c r="C278" s="16" t="s">
         <v>269</v>
       </c>
       <c r="D278" s="16" t="s">
@@ -11230,7 +11264,7 @@
       <c r="B279" s="11">
         <v>39845</v>
       </c>
-      <c r="C279" s="21" t="s">
+      <c r="C279" s="17" t="s">
         <v>276</v>
       </c>
       <c r="D279" s="17" t="s">
@@ -11265,7 +11299,7 @@
       <c r="B280" s="10">
         <v>39886</v>
       </c>
-      <c r="C280" s="20" t="s">
+      <c r="C280" s="16" t="s">
         <v>276</v>
       </c>
       <c r="D280" s="16" t="s">
@@ -11300,7 +11334,7 @@
       <c r="B281" s="11">
         <v>40129</v>
       </c>
-      <c r="C281" s="21" t="s">
+      <c r="C281" s="17" t="s">
         <v>276</v>
       </c>
       <c r="D281" s="17" t="s">
@@ -11335,7 +11369,7 @@
       <c r="B282" s="10">
         <v>40713</v>
       </c>
-      <c r="C282" s="20" t="s">
+      <c r="C282" s="16" t="s">
         <v>276</v>
       </c>
       <c r="D282" s="16" t="s">
@@ -11370,7 +11404,7 @@
       <c r="B283" s="11">
         <v>40807</v>
       </c>
-      <c r="C283" s="21" t="s">
+      <c r="C283" s="17" t="s">
         <v>276</v>
       </c>
       <c r="D283" s="17" t="s">
@@ -11405,7 +11439,7 @@
       <c r="B284" s="10">
         <v>40901</v>
       </c>
-      <c r="C284" s="20" t="s">
+      <c r="C284" s="16" t="s">
         <v>276</v>
       </c>
       <c r="D284" s="16" t="s">
@@ -11440,7 +11474,7 @@
       <c r="B285" s="11">
         <v>41134</v>
       </c>
-      <c r="C285" s="21" t="s">
+      <c r="C285" s="17" t="s">
         <v>276</v>
       </c>
       <c r="D285" s="17" t="s">
@@ -11464,7 +11498,7 @@
       <c r="J285" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="K285" s="18">
+      <c r="K285" s="13">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -11475,7 +11509,7 @@
       <c r="B286" s="10">
         <v>40279</v>
       </c>
-      <c r="C286" s="20" t="s">
+      <c r="C286" s="16" t="s">
         <v>281</v>
       </c>
       <c r="D286" s="16" t="s">
@@ -11510,7 +11544,7 @@
       <c r="B287" s="11">
         <v>40320</v>
       </c>
-      <c r="C287" s="21" t="s">
+      <c r="C287" s="17" t="s">
         <v>281</v>
       </c>
       <c r="D287" s="17" t="s">
@@ -11545,7 +11579,7 @@
       <c r="B288" s="10">
         <v>40563</v>
       </c>
-      <c r="C288" s="20" t="s">
+      <c r="C288" s="16" t="s">
         <v>281</v>
       </c>
       <c r="D288" s="16" t="s">
@@ -11580,7 +11614,7 @@
       <c r="B289" s="11">
         <v>41147</v>
       </c>
-      <c r="C289" s="21" t="s">
+      <c r="C289" s="17" t="s">
         <v>281</v>
       </c>
       <c r="D289" s="17" t="s">
@@ -11615,7 +11649,7 @@
       <c r="B290" s="10">
         <v>41241</v>
       </c>
-      <c r="C290" s="20" t="s">
+      <c r="C290" s="16" t="s">
         <v>281</v>
       </c>
       <c r="D290" s="16" t="s">
@@ -11650,7 +11684,7 @@
       <c r="B291" s="11">
         <v>41335</v>
       </c>
-      <c r="C291" s="21" t="s">
+      <c r="C291" s="17" t="s">
         <v>281</v>
       </c>
       <c r="D291" s="17" t="s">
@@ -11685,7 +11719,7 @@
       <c r="B292" s="10">
         <v>41568</v>
       </c>
-      <c r="C292" s="20" t="s">
+      <c r="C292" s="16" t="s">
         <v>281</v>
       </c>
       <c r="D292" s="16" t="s">
@@ -11709,7 +11743,7 @@
       <c r="J292" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="K292" s="18">
+      <c r="K292" s="12">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -11720,7 +11754,7 @@
       <c r="B293" s="11">
         <v>39846</v>
       </c>
-      <c r="C293" s="21" t="s">
+      <c r="C293" s="17" t="s">
         <v>287</v>
       </c>
       <c r="D293" s="17" t="s">
@@ -11755,7 +11789,7 @@
       <c r="B294" s="10">
         <v>39940</v>
       </c>
-      <c r="C294" s="20" t="s">
+      <c r="C294" s="16" t="s">
         <v>287</v>
       </c>
       <c r="D294" s="16" t="s">
@@ -11790,7 +11824,7 @@
       <c r="B295" s="11">
         <v>40173</v>
       </c>
-      <c r="C295" s="21" t="s">
+      <c r="C295" s="17" t="s">
         <v>287</v>
       </c>
       <c r="D295" s="17" t="s">
@@ -11814,7 +11848,7 @@
       <c r="J295" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="K295" s="18">
+      <c r="K295" s="13">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -11825,7 +11859,7 @@
       <c r="B296" s="10">
         <v>40713</v>
       </c>
-      <c r="C296" s="20" t="s">
+      <c r="C296" s="16" t="s">
         <v>287</v>
       </c>
       <c r="D296" s="16" t="s">
@@ -11860,7 +11894,7 @@
       <c r="B297" s="11">
         <v>40754</v>
       </c>
-      <c r="C297" s="21" t="s">
+      <c r="C297" s="17" t="s">
         <v>287</v>
       </c>
       <c r="D297" s="17" t="s">
@@ -11895,7 +11929,7 @@
       <c r="B298" s="10">
         <v>40997</v>
       </c>
-      <c r="C298" s="20" t="s">
+      <c r="C298" s="16" t="s">
         <v>287</v>
       </c>
       <c r="D298" s="16" t="s">
@@ -11930,7 +11964,7 @@
       <c r="B299" s="11">
         <v>41581</v>
       </c>
-      <c r="C299" s="21" t="s">
+      <c r="C299" s="17" t="s">
         <v>287</v>
       </c>
       <c r="D299" s="17" t="s">
@@ -11965,7 +11999,7 @@
       <c r="B300" s="10">
         <v>40186</v>
       </c>
-      <c r="C300" s="20" t="s">
+      <c r="C300" s="16" t="s">
         <v>293</v>
       </c>
       <c r="D300" s="16" t="s">
@@ -12000,7 +12034,7 @@
       <c r="B301" s="11">
         <v>40280</v>
       </c>
-      <c r="C301" s="21" t="s">
+      <c r="C301" s="17" t="s">
         <v>293</v>
       </c>
       <c r="D301" s="17" t="s">
@@ -12035,7 +12069,7 @@
       <c r="B302" s="10">
         <v>40374</v>
       </c>
-      <c r="C302" s="20" t="s">
+      <c r="C302" s="16" t="s">
         <v>293</v>
       </c>
       <c r="D302" s="16" t="s">
@@ -12070,7 +12104,7 @@
       <c r="B303" s="11">
         <v>40607</v>
       </c>
-      <c r="C303" s="21" t="s">
+      <c r="C303" s="17" t="s">
         <v>293</v>
       </c>
       <c r="D303" s="17" t="s">
@@ -12094,7 +12128,7 @@
       <c r="J303" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="K303" s="18">
+      <c r="K303" s="13">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -12105,7 +12139,7 @@
       <c r="B304" s="10">
         <v>41147</v>
       </c>
-      <c r="C304" s="20" t="s">
+      <c r="C304" s="16" t="s">
         <v>293</v>
       </c>
       <c r="D304" s="16" t="s">
@@ -12140,7 +12174,7 @@
       <c r="B305" s="11">
         <v>41188</v>
       </c>
-      <c r="C305" s="21" t="s">
+      <c r="C305" s="17" t="s">
         <v>293</v>
       </c>
       <c r="D305" s="17" t="s">
@@ -12175,7 +12209,7 @@
       <c r="B306" s="10">
         <v>41431</v>
       </c>
-      <c r="C306" s="20" t="s">
+      <c r="C306" s="16" t="s">
         <v>293</v>
       </c>
       <c r="D306" s="16" t="s">
@@ -12210,7 +12244,7 @@
       <c r="B307" s="11">
         <v>40036</v>
       </c>
-      <c r="C307" s="21" t="s">
+      <c r="C307" s="17" t="s">
         <v>299</v>
       </c>
       <c r="D307" s="17" t="s">
@@ -12245,7 +12279,7 @@
       <c r="B308" s="10">
         <v>40620</v>
       </c>
-      <c r="C308" s="20" t="s">
+      <c r="C308" s="16" t="s">
         <v>299</v>
       </c>
       <c r="D308" s="16" t="s">
@@ -12280,7 +12314,7 @@
       <c r="B309" s="11">
         <v>40714</v>
       </c>
-      <c r="C309" s="21" t="s">
+      <c r="C309" s="17" t="s">
         <v>299</v>
       </c>
       <c r="D309" s="17" t="s">
@@ -12315,7 +12349,7 @@
       <c r="B310" s="10">
         <v>40808</v>
       </c>
-      <c r="C310" s="20" t="s">
+      <c r="C310" s="16" t="s">
         <v>299</v>
       </c>
       <c r="D310" s="16" t="s">
@@ -12350,7 +12384,7 @@
       <c r="B311" s="11">
         <v>41041</v>
       </c>
-      <c r="C311" s="21" t="s">
+      <c r="C311" s="17" t="s">
         <v>299</v>
       </c>
       <c r="D311" s="17" t="s">
@@ -12374,7 +12408,7 @@
       <c r="J311" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="K311" s="18">
+      <c r="K311" s="13">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -12385,7 +12419,7 @@
       <c r="B312" s="10">
         <v>41581</v>
       </c>
-      <c r="C312" s="20" t="s">
+      <c r="C312" s="16" t="s">
         <v>299</v>
       </c>
       <c r="D312" s="16" t="s">
@@ -12420,7 +12454,7 @@
       <c r="B313" s="11">
         <v>41622</v>
       </c>
-      <c r="C313" s="21" t="s">
+      <c r="C313" s="17" t="s">
         <v>299</v>
       </c>
       <c r="D313" s="17" t="s">
@@ -12455,7 +12489,7 @@
       <c r="B314" s="10">
         <v>40186</v>
       </c>
-      <c r="C314" s="20" t="s">
+      <c r="C314" s="16" t="s">
         <v>306</v>
       </c>
       <c r="D314" s="16" t="s">
@@ -12490,7 +12524,7 @@
       <c r="B315" s="11">
         <v>40227</v>
       </c>
-      <c r="C315" s="21" t="s">
+      <c r="C315" s="17" t="s">
         <v>306</v>
       </c>
       <c r="D315" s="17" t="s">
@@ -12525,7 +12559,7 @@
       <c r="B316" s="10">
         <v>40470</v>
       </c>
-      <c r="C316" s="20" t="s">
+      <c r="C316" s="16" t="s">
         <v>306</v>
       </c>
       <c r="D316" s="16" t="s">
@@ -12560,7 +12594,7 @@
       <c r="B317" s="11">
         <v>41054</v>
       </c>
-      <c r="C317" s="21" t="s">
+      <c r="C317" s="17" t="s">
         <v>306</v>
       </c>
       <c r="D317" s="17" t="s">
@@ -12595,7 +12629,7 @@
       <c r="B318" s="10">
         <v>41148</v>
       </c>
-      <c r="C318" s="20" t="s">
+      <c r="C318" s="16" t="s">
         <v>306</v>
       </c>
       <c r="D318" s="16" t="s">
@@ -12630,7 +12664,7 @@
       <c r="B319" s="11">
         <v>41242</v>
       </c>
-      <c r="C319" s="21" t="s">
+      <c r="C319" s="17" t="s">
         <v>306</v>
       </c>
       <c r="D319" s="17" t="s">
@@ -12665,7 +12699,7 @@
       <c r="B320" s="10">
         <v>41475</v>
       </c>
-      <c r="C320" s="20" t="s">
+      <c r="C320" s="16" t="s">
         <v>306</v>
       </c>
       <c r="D320" s="16" t="s">
@@ -12689,7 +12723,7 @@
       <c r="J320" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="K320" s="18">
+      <c r="K320" s="12">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -12700,7 +12734,7 @@
       <c r="B321" s="11">
         <v>39847</v>
       </c>
-      <c r="C321" s="21" t="s">
+      <c r="C321" s="17" t="s">
         <v>312</v>
       </c>
       <c r="D321" s="17" t="s">
@@ -12735,7 +12769,7 @@
       <c r="B322" s="10">
         <v>40080</v>
       </c>
-      <c r="C322" s="20" t="s">
+      <c r="C322" s="16" t="s">
         <v>312</v>
       </c>
       <c r="D322" s="16" t="s">
@@ -12759,7 +12793,7 @@
       <c r="J322" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="K322" s="18">
+      <c r="K322" s="12">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -12770,7 +12804,7 @@
       <c r="B323" s="11">
         <v>40620</v>
       </c>
-      <c r="C323" s="21" t="s">
+      <c r="C323" s="17" t="s">
         <v>312</v>
       </c>
       <c r="D323" s="17" t="s">
@@ -12805,7 +12839,7 @@
       <c r="B324" s="10">
         <v>40661</v>
       </c>
-      <c r="C324" s="20" t="s">
+      <c r="C324" s="16" t="s">
         <v>312</v>
       </c>
       <c r="D324" s="16" t="s">
@@ -12840,7 +12874,7 @@
       <c r="B325" s="11">
         <v>40904</v>
       </c>
-      <c r="C325" s="21" t="s">
+      <c r="C325" s="17" t="s">
         <v>312</v>
       </c>
       <c r="D325" s="17" t="s">
@@ -12875,7 +12909,7 @@
       <c r="B326" s="10">
         <v>41488</v>
       </c>
-      <c r="C326" s="20" t="s">
+      <c r="C326" s="16" t="s">
         <v>312</v>
       </c>
       <c r="D326" s="16" t="s">
@@ -12910,7 +12944,7 @@
       <c r="B327" s="11">
         <v>41582</v>
       </c>
-      <c r="C327" s="21" t="s">
+      <c r="C327" s="17" t="s">
         <v>312</v>
       </c>
       <c r="D327" s="17" t="s">
@@ -12945,7 +12979,7 @@
       <c r="B328" s="10">
         <v>40093</v>
       </c>
-      <c r="C328" s="20" t="s">
+      <c r="C328" s="16" t="s">
         <v>318</v>
       </c>
       <c r="D328" s="16" t="s">
@@ -12980,7 +13014,7 @@
       <c r="B329" s="11">
         <v>40187</v>
       </c>
-      <c r="C329" s="21" t="s">
+      <c r="C329" s="17" t="s">
         <v>318</v>
       </c>
       <c r="D329" s="17" t="s">
@@ -13015,7 +13049,7 @@
       <c r="B330" s="10">
         <v>40281</v>
       </c>
-      <c r="C330" s="20" t="s">
+      <c r="C330" s="16" t="s">
         <v>318</v>
       </c>
       <c r="D330" s="16" t="s">
@@ -13050,7 +13084,7 @@
       <c r="B331" s="11">
         <v>40514</v>
       </c>
-      <c r="C331" s="21" t="s">
+      <c r="C331" s="17" t="s">
         <v>318</v>
       </c>
       <c r="D331" s="17" t="s">
@@ -13074,7 +13108,7 @@
       <c r="J331" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="K331" s="18">
+      <c r="K331" s="13">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -13085,7 +13119,7 @@
       <c r="B332" s="10">
         <v>41054</v>
       </c>
-      <c r="C332" s="20" t="s">
+      <c r="C332" s="16" t="s">
         <v>318</v>
       </c>
       <c r="D332" s="16" t="s">
@@ -13120,7 +13154,7 @@
       <c r="B333" s="11">
         <v>41095</v>
       </c>
-      <c r="C333" s="21" t="s">
+      <c r="C333" s="17" t="s">
         <v>318</v>
       </c>
       <c r="D333" s="17" t="s">
@@ -13155,7 +13189,7 @@
       <c r="B334" s="10">
         <v>41338</v>
       </c>
-      <c r="C334" s="20" t="s">
+      <c r="C334" s="16" t="s">
         <v>318</v>
       </c>
       <c r="D334" s="16" t="s">
@@ -13190,7 +13224,7 @@
       <c r="B335" s="11">
         <v>39943</v>
       </c>
-      <c r="C335" s="21" t="s">
+      <c r="C335" s="17" t="s">
         <v>326</v>
       </c>
       <c r="D335" s="17" t="s">
@@ -13225,7 +13259,7 @@
       <c r="B336" s="10">
         <v>40527</v>
       </c>
-      <c r="C336" s="20" t="s">
+      <c r="C336" s="16" t="s">
         <v>326</v>
       </c>
       <c r="D336" s="16" t="s">
@@ -13260,7 +13294,7 @@
       <c r="B337" s="11">
         <v>40621</v>
       </c>
-      <c r="C337" s="21" t="s">
+      <c r="C337" s="17" t="s">
         <v>326</v>
       </c>
       <c r="D337" s="17" t="s">
@@ -13295,7 +13329,7 @@
       <c r="B338" s="10">
         <v>40715</v>
       </c>
-      <c r="C338" s="20" t="s">
+      <c r="C338" s="16" t="s">
         <v>326</v>
       </c>
       <c r="D338" s="16" t="s">
@@ -13330,7 +13364,7 @@
       <c r="B339" s="11">
         <v>40948</v>
       </c>
-      <c r="C339" s="21" t="s">
+      <c r="C339" s="17" t="s">
         <v>326</v>
       </c>
       <c r="D339" s="17" t="s">
@@ -13354,7 +13388,7 @@
       <c r="J339" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="K339" s="18">
+      <c r="K339" s="13">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -13365,7 +13399,7 @@
       <c r="B340" s="10">
         <v>41488</v>
       </c>
-      <c r="C340" s="20" t="s">
+      <c r="C340" s="16" t="s">
         <v>326</v>
       </c>
       <c r="D340" s="16" t="s">
@@ -13400,7 +13434,7 @@
       <c r="B341" s="11">
         <v>41529</v>
       </c>
-      <c r="C341" s="21" t="s">
+      <c r="C341" s="17" t="s">
         <v>326</v>
       </c>
       <c r="D341" s="17" t="s">
@@ -13435,7 +13469,7 @@
       <c r="B342" s="10">
         <v>40093</v>
       </c>
-      <c r="C342" s="20" t="s">
+      <c r="C342" s="16" t="s">
         <v>334</v>
       </c>
       <c r="D342" s="16" t="s">
@@ -13470,7 +13504,7 @@
       <c r="B343" s="11">
         <v>40134</v>
       </c>
-      <c r="C343" s="21" t="s">
+      <c r="C343" s="17" t="s">
         <v>334</v>
       </c>
       <c r="D343" s="17" t="s">
@@ -13505,7 +13539,7 @@
       <c r="B344" s="10">
         <v>40377</v>
       </c>
-      <c r="C344" s="20" t="s">
+      <c r="C344" s="16" t="s">
         <v>334</v>
       </c>
       <c r="D344" s="16" t="s">
@@ -13540,7 +13574,7 @@
       <c r="B345" s="11">
         <v>40961</v>
       </c>
-      <c r="C345" s="21" t="s">
+      <c r="C345" s="17" t="s">
         <v>334</v>
       </c>
       <c r="D345" s="17" t="s">
@@ -13575,7 +13609,7 @@
       <c r="B346" s="10">
         <v>41055</v>
       </c>
-      <c r="C346" s="20" t="s">
+      <c r="C346" s="16" t="s">
         <v>334</v>
       </c>
       <c r="D346" s="16" t="s">
@@ -13610,7 +13644,7 @@
       <c r="B347" s="11">
         <v>41149</v>
       </c>
-      <c r="C347" s="21" t="s">
+      <c r="C347" s="17" t="s">
         <v>334</v>
       </c>
       <c r="D347" s="17" t="s">
@@ -13645,7 +13679,7 @@
       <c r="B348" s="10">
         <v>41382</v>
       </c>
-      <c r="C348" s="20" t="s">
+      <c r="C348" s="16" t="s">
         <v>334</v>
       </c>
       <c r="D348" s="16" t="s">
@@ -13669,7 +13703,7 @@
       <c r="J348" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="K348" s="18">
+      <c r="K348" s="12">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -13680,7 +13714,7 @@
       <c r="B349" s="11">
         <v>39987</v>
       </c>
-      <c r="C349" s="21" t="s">
+      <c r="C349" s="17" t="s">
         <v>341</v>
       </c>
       <c r="D349" s="17" t="s">
@@ -13704,7 +13738,7 @@
       <c r="J349" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="K349" s="18">
+      <c r="K349" s="13">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -13715,7 +13749,7 @@
       <c r="B350" s="10">
         <v>40527</v>
       </c>
-      <c r="C350" s="20" t="s">
+      <c r="C350" s="16" t="s">
         <v>341</v>
       </c>
       <c r="D350" s="16" t="s">
@@ -13750,7 +13784,7 @@
       <c r="B351" s="11">
         <v>40568</v>
       </c>
-      <c r="C351" s="21" t="s">
+      <c r="C351" s="17" t="s">
         <v>341</v>
       </c>
       <c r="D351" s="17" t="s">
@@ -13785,7 +13819,7 @@
       <c r="B352" s="10">
         <v>40811</v>
       </c>
-      <c r="C352" s="20" t="s">
+      <c r="C352" s="16" t="s">
         <v>341</v>
       </c>
       <c r="D352" s="16" t="s">
@@ -13820,7 +13854,7 @@
       <c r="B353" s="11">
         <v>41395</v>
       </c>
-      <c r="C353" s="21" t="s">
+      <c r="C353" s="17" t="s">
         <v>341</v>
       </c>
       <c r="D353" s="17" t="s">
@@ -13855,7 +13889,7 @@
       <c r="B354" s="10">
         <v>41489</v>
       </c>
-      <c r="C354" s="20" t="s">
+      <c r="C354" s="16" t="s">
         <v>341</v>
       </c>
       <c r="D354" s="16" t="s">
@@ -13890,7 +13924,7 @@
       <c r="B355" s="11">
         <v>41583</v>
       </c>
-      <c r="C355" s="21" t="s">
+      <c r="C355" s="17" t="s">
         <v>341</v>
       </c>
       <c r="D355" s="17" t="s">
@@ -13925,7 +13959,7 @@
       <c r="B356" s="10">
         <v>40000</v>
       </c>
-      <c r="C356" s="20" t="s">
+      <c r="C356" s="16" t="s">
         <v>348</v>
       </c>
       <c r="D356" s="16" t="s">
@@ -13960,7 +13994,7 @@
       <c r="B357" s="11">
         <v>40094</v>
       </c>
-      <c r="C357" s="21" t="s">
+      <c r="C357" s="17" t="s">
         <v>348</v>
       </c>
       <c r="D357" s="17" t="s">
@@ -13995,7 +14029,7 @@
       <c r="B358" s="10">
         <v>40188</v>
       </c>
-      <c r="C358" s="20" t="s">
+      <c r="C358" s="16" t="s">
         <v>348</v>
       </c>
       <c r="D358" s="16" t="s">
@@ -14030,7 +14064,7 @@
       <c r="B359" s="11">
         <v>40421</v>
       </c>
-      <c r="C359" s="21" t="s">
+      <c r="C359" s="17" t="s">
         <v>348</v>
       </c>
       <c r="D359" s="17" t="s">
@@ -14054,7 +14088,7 @@
       <c r="J359" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="K359" s="18">
+      <c r="K359" s="13">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -14065,7 +14099,7 @@
       <c r="B360" s="10">
         <v>40961</v>
       </c>
-      <c r="C360" s="20" t="s">
+      <c r="C360" s="16" t="s">
         <v>348</v>
       </c>
       <c r="D360" s="16" t="s">
@@ -14100,7 +14134,7 @@
       <c r="B361" s="11">
         <v>41002</v>
       </c>
-      <c r="C361" s="21" t="s">
+      <c r="C361" s="17" t="s">
         <v>348</v>
       </c>
       <c r="D361" s="17" t="s">
@@ -14135,7 +14169,7 @@
       <c r="B362" s="10">
         <v>41245</v>
       </c>
-      <c r="C362" s="20" t="s">
+      <c r="C362" s="16" t="s">
         <v>348</v>
       </c>
       <c r="D362" s="16" t="s">
@@ -14170,7 +14204,7 @@
       <c r="B363" s="11">
         <v>39850</v>
       </c>
-      <c r="C363" s="21" t="s">
+      <c r="C363" s="17" t="s">
         <v>355</v>
       </c>
       <c r="D363" s="17" t="s">
@@ -14205,7 +14239,7 @@
       <c r="B364" s="10">
         <v>40434</v>
       </c>
-      <c r="C364" s="20" t="s">
+      <c r="C364" s="16" t="s">
         <v>355</v>
       </c>
       <c r="D364" s="16" t="s">
@@ -14240,7 +14274,7 @@
       <c r="B365" s="11">
         <v>40528</v>
       </c>
-      <c r="C365" s="21" t="s">
+      <c r="C365" s="17" t="s">
         <v>355</v>
       </c>
       <c r="D365" s="17" t="s">
@@ -14275,7 +14309,7 @@
       <c r="B366" s="10">
         <v>40622</v>
       </c>
-      <c r="C366" s="20" t="s">
+      <c r="C366" s="16" t="s">
         <v>355</v>
       </c>
       <c r="D366" s="16" t="s">
@@ -14310,7 +14344,7 @@
       <c r="B367" s="11">
         <v>40855</v>
       </c>
-      <c r="C367" s="21" t="s">
+      <c r="C367" s="17" t="s">
         <v>355</v>
       </c>
       <c r="D367" s="17" t="s">
@@ -14334,7 +14368,7 @@
       <c r="J367" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="K367" s="18">
+      <c r="K367" s="13">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -14345,7 +14379,7 @@
       <c r="B368" s="10">
         <v>41395</v>
       </c>
-      <c r="C368" s="20" t="s">
+      <c r="C368" s="16" t="s">
         <v>355</v>
       </c>
       <c r="D368" s="16" t="s">
@@ -14380,7 +14414,7 @@
       <c r="B369" s="11">
         <v>41436</v>
       </c>
-      <c r="C369" s="21" t="s">
+      <c r="C369" s="17" t="s">
         <v>355</v>
       </c>
       <c r="D369" s="17" t="s">
@@ -14415,7 +14449,7 @@
       <c r="B370" s="10">
         <v>40000</v>
       </c>
-      <c r="C370" s="20" t="s">
+      <c r="C370" s="16" t="s">
         <v>362</v>
       </c>
       <c r="D370" s="16" t="s">
@@ -14450,7 +14484,7 @@
       <c r="B371" s="11">
         <v>40041</v>
       </c>
-      <c r="C371" s="21" t="s">
+      <c r="C371" s="17" t="s">
         <v>362</v>
       </c>
       <c r="D371" s="17" t="s">
@@ -14485,7 +14519,7 @@
       <c r="B372" s="10">
         <v>40284</v>
       </c>
-      <c r="C372" s="20" t="s">
+      <c r="C372" s="16" t="s">
         <v>362</v>
       </c>
       <c r="D372" s="16" t="s">
@@ -14520,7 +14554,7 @@
       <c r="B373" s="11">
         <v>40868</v>
       </c>
-      <c r="C373" s="21" t="s">
+      <c r="C373" s="17" t="s">
         <v>362</v>
       </c>
       <c r="D373" s="17" t="s">
@@ -14555,7 +14589,7 @@
       <c r="B374" s="10">
         <v>40962</v>
       </c>
-      <c r="C374" s="20" t="s">
+      <c r="C374" s="16" t="s">
         <v>362</v>
       </c>
       <c r="D374" s="16" t="s">
@@ -14590,7 +14624,7 @@
       <c r="B375" s="11">
         <v>41056</v>
       </c>
-      <c r="C375" s="21" t="s">
+      <c r="C375" s="17" t="s">
         <v>362</v>
       </c>
       <c r="D375" s="17" t="s">
@@ -14625,7 +14659,7 @@
       <c r="B376" s="10">
         <v>41289</v>
       </c>
-      <c r="C376" s="20" t="s">
+      <c r="C376" s="16" t="s">
         <v>362</v>
       </c>
       <c r="D376" s="16" t="s">
@@ -14649,7 +14683,7 @@
       <c r="J376" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="K376" s="18">
+      <c r="K376" s="12">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -14660,7 +14694,7 @@
       <c r="B377" s="11">
         <v>39894</v>
       </c>
-      <c r="C377" s="21" t="s">
+      <c r="C377" s="17" t="s">
         <v>367</v>
       </c>
       <c r="D377" s="17" t="s">
@@ -14684,7 +14718,7 @@
       <c r="J377" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="K377" s="18">
+      <c r="K377" s="13">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -14695,7 +14729,7 @@
       <c r="B378" s="10">
         <v>40434</v>
       </c>
-      <c r="C378" s="20" t="s">
+      <c r="C378" s="16" t="s">
         <v>367</v>
       </c>
       <c r="D378" s="16" t="s">
@@ -14730,7 +14764,7 @@
       <c r="B379" s="11">
         <v>40475</v>
       </c>
-      <c r="C379" s="21" t="s">
+      <c r="C379" s="17" t="s">
         <v>367</v>
       </c>
       <c r="D379" s="17" t="s">
@@ -14765,7 +14799,7 @@
       <c r="B380" s="10">
         <v>40718</v>
       </c>
-      <c r="C380" s="20" t="s">
+      <c r="C380" s="16" t="s">
         <v>367</v>
       </c>
       <c r="D380" s="16" t="s">
@@ -14800,7 +14834,7 @@
       <c r="B381" s="11">
         <v>41302</v>
       </c>
-      <c r="C381" s="21" t="s">
+      <c r="C381" s="17" t="s">
         <v>367</v>
       </c>
       <c r="D381" s="17" t="s">
@@ -14835,7 +14869,7 @@
       <c r="B382" s="10">
         <v>41396</v>
       </c>
-      <c r="C382" s="20" t="s">
+      <c r="C382" s="16" t="s">
         <v>367</v>
       </c>
       <c r="D382" s="16" t="s">
@@ -14870,7 +14904,7 @@
       <c r="B383" s="11">
         <v>41490</v>
       </c>
-      <c r="C383" s="21" t="s">
+      <c r="C383" s="17" t="s">
         <v>367</v>
       </c>
       <c r="D383" s="17" t="s">
@@ -14905,7 +14939,7 @@
       <c r="B384" s="10">
         <v>39907</v>
       </c>
-      <c r="C384" s="20" t="s">
+      <c r="C384" s="16" t="s">
         <v>373</v>
       </c>
       <c r="D384" s="16" t="s">
@@ -14940,7 +14974,7 @@
       <c r="B385" s="11">
         <v>40001</v>
       </c>
-      <c r="C385" s="21" t="s">
+      <c r="C385" s="17" t="s">
         <v>373</v>
       </c>
       <c r="D385" s="17" t="s">
@@ -14975,7 +15009,7 @@
       <c r="B386" s="10">
         <v>40095</v>
       </c>
-      <c r="C386" s="20" t="s">
+      <c r="C386" s="16" t="s">
         <v>373</v>
       </c>
       <c r="D386" s="16" t="s">
@@ -15010,7 +15044,7 @@
       <c r="B387" s="11">
         <v>40328</v>
       </c>
-      <c r="C387" s="21" t="s">
+      <c r="C387" s="17" t="s">
         <v>373</v>
       </c>
       <c r="D387" s="17" t="s">
@@ -15034,7 +15068,7 @@
       <c r="J387" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="K387" s="18">
+      <c r="K387" s="13">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -15045,7 +15079,7 @@
       <c r="B388" s="10">
         <v>40868</v>
       </c>
-      <c r="C388" s="20" t="s">
+      <c r="C388" s="16" t="s">
         <v>373</v>
       </c>
       <c r="D388" s="16" t="s">
@@ -15080,7 +15114,7 @@
       <c r="B389" s="11">
         <v>40909</v>
       </c>
-      <c r="C389" s="21" t="s">
+      <c r="C389" s="17" t="s">
         <v>373</v>
       </c>
       <c r="D389" s="17" t="s">
@@ -15115,7 +15149,7 @@
       <c r="B390" s="10">
         <v>41152</v>
       </c>
-      <c r="C390" s="20" t="s">
+      <c r="C390" s="16" t="s">
         <v>373</v>
       </c>
       <c r="D390" s="16" t="s">
@@ -15150,7 +15184,7 @@
       <c r="B391" s="11">
         <v>40341</v>
       </c>
-      <c r="C391" s="21" t="s">
+      <c r="C391" s="17" t="s">
         <v>381</v>
       </c>
       <c r="D391" s="17" t="s">
@@ -15185,7 +15219,7 @@
       <c r="B392" s="10">
         <v>40435</v>
       </c>
-      <c r="C392" s="20" t="s">
+      <c r="C392" s="16" t="s">
         <v>381</v>
       </c>
       <c r="D392" s="16" t="s">
@@ -15220,7 +15254,7 @@
       <c r="B393" s="11">
         <v>40529</v>
       </c>
-      <c r="C393" s="21" t="s">
+      <c r="C393" s="17" t="s">
         <v>381</v>
       </c>
       <c r="D393" s="17" t="s">
@@ -15255,7 +15289,7 @@
       <c r="B394" s="10">
         <v>40762</v>
       </c>
-      <c r="C394" s="20" t="s">
+      <c r="C394" s="16" t="s">
         <v>381</v>
       </c>
       <c r="D394" s="16" t="s">
@@ -15279,7 +15313,7 @@
       <c r="J394" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="K394" s="18">
+      <c r="K394" s="12">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -15290,7 +15324,7 @@
       <c r="B395" s="11">
         <v>41302</v>
       </c>
-      <c r="C395" s="21" t="s">
+      <c r="C395" s="17" t="s">
         <v>381</v>
       </c>
       <c r="D395" s="17" t="s">
@@ -15325,7 +15359,7 @@
       <c r="B396" s="10">
         <v>41343</v>
       </c>
-      <c r="C396" s="20" t="s">
+      <c r="C396" s="16" t="s">
         <v>381</v>
       </c>
       <c r="D396" s="16" t="s">
@@ -15360,7 +15394,7 @@
       <c r="B397" s="11">
         <v>41586</v>
       </c>
-      <c r="C397" s="21" t="s">
+      <c r="C397" s="17" t="s">
         <v>381</v>
       </c>
       <c r="D397" s="17" t="s">
@@ -15395,7 +15429,7 @@
       <c r="B398" s="10">
         <v>39907</v>
       </c>
-      <c r="C398" s="20" t="s">
+      <c r="C398" s="16" t="s">
         <v>388</v>
       </c>
       <c r="D398" s="16" t="s">
@@ -15430,7 +15464,7 @@
       <c r="B399" s="11">
         <v>39948</v>
       </c>
-      <c r="C399" s="21" t="s">
+      <c r="C399" s="17" t="s">
         <v>388</v>
       </c>
       <c r="D399" s="17" t="s">
@@ -15465,7 +15499,7 @@
       <c r="B400" s="10">
         <v>40191</v>
       </c>
-      <c r="C400" s="20" t="s">
+      <c r="C400" s="16" t="s">
         <v>388</v>
       </c>
       <c r="D400" s="16" t="s">
@@ -15500,7 +15534,7 @@
       <c r="B401" s="11">
         <v>40775</v>
       </c>
-      <c r="C401" s="21" t="s">
+      <c r="C401" s="17" t="s">
         <v>388</v>
       </c>
       <c r="D401" s="17" t="s">
@@ -15535,7 +15569,7 @@
       <c r="B402" s="10">
         <v>40869</v>
       </c>
-      <c r="C402" s="20" t="s">
+      <c r="C402" s="16" t="s">
         <v>388</v>
       </c>
       <c r="D402" s="16" t="s">
@@ -15570,7 +15604,7 @@
       <c r="B403" s="11">
         <v>40963</v>
       </c>
-      <c r="C403" s="21" t="s">
+      <c r="C403" s="17" t="s">
         <v>388</v>
       </c>
       <c r="D403" s="17" t="s">
@@ -15605,7 +15639,7 @@
       <c r="B404" s="10">
         <v>41196</v>
       </c>
-      <c r="C404" s="20" t="s">
+      <c r="C404" s="16" t="s">
         <v>388</v>
       </c>
       <c r="D404" s="16" t="s">
@@ -15629,7 +15663,7 @@
       <c r="J404" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="K404" s="18">
+      <c r="K404" s="12">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -15640,7 +15674,7 @@
       <c r="B405" s="11">
         <v>40341</v>
       </c>
-      <c r="C405" s="21" t="s">
+      <c r="C405" s="17" t="s">
         <v>394</v>
       </c>
       <c r="D405" s="17" t="s">
@@ -15675,7 +15709,7 @@
       <c r="B406" s="10">
         <v>40382</v>
       </c>
-      <c r="C406" s="20" t="s">
+      <c r="C406" s="16" t="s">
         <v>394</v>
       </c>
       <c r="D406" s="16" t="s">
@@ -15710,7 +15744,7 @@
       <c r="B407" s="11">
         <v>40625</v>
       </c>
-      <c r="C407" s="21" t="s">
+      <c r="C407" s="17" t="s">
         <v>394</v>
       </c>
       <c r="D407" s="17" t="s">
@@ -15745,7 +15779,7 @@
       <c r="B408" s="10">
         <v>41209</v>
       </c>
-      <c r="C408" s="20" t="s">
+      <c r="C408" s="16" t="s">
         <v>394</v>
       </c>
       <c r="D408" s="16" t="s">
@@ -15780,7 +15814,7 @@
       <c r="B409" s="11">
         <v>41303</v>
       </c>
-      <c r="C409" s="21" t="s">
+      <c r="C409" s="17" t="s">
         <v>394</v>
       </c>
       <c r="D409" s="17" t="s">
@@ -15815,7 +15849,7 @@
       <c r="B410" s="10">
         <v>41397</v>
       </c>
-      <c r="C410" s="20" t="s">
+      <c r="C410" s="16" t="s">
         <v>394</v>
       </c>
       <c r="D410" s="16" t="s">
@@ -15850,7 +15884,7 @@
       <c r="B411" s="11">
         <v>41630</v>
       </c>
-      <c r="C411" s="21" t="s">
+      <c r="C411" s="17" t="s">
         <v>394</v>
       </c>
       <c r="D411" s="17" t="s">
@@ -15885,7 +15919,7 @@
       <c r="B412" s="10">
         <v>39908</v>
       </c>
-      <c r="C412" s="20" t="s">
+      <c r="C412" s="16" t="s">
         <v>401</v>
       </c>
       <c r="D412" s="16" t="s">
@@ -15920,7 +15954,7 @@
       <c r="B413" s="11">
         <v>40002</v>
       </c>
-      <c r="C413" s="21" t="s">
+      <c r="C413" s="17" t="s">
         <v>401</v>
       </c>
       <c r="D413" s="17" t="s">
@@ -15955,7 +15989,7 @@
       <c r="B414" s="10">
         <v>40235</v>
       </c>
-      <c r="C414" s="20" t="s">
+      <c r="C414" s="16" t="s">
         <v>401</v>
       </c>
       <c r="D414" s="16" t="s">
@@ -15990,7 +16024,7 @@
       <c r="B415" s="11">
         <v>40775</v>
       </c>
-      <c r="C415" s="21" t="s">
+      <c r="C415" s="17" t="s">
         <v>401</v>
       </c>
       <c r="D415" s="17" t="s">
@@ -16025,7 +16059,7 @@
       <c r="B416" s="10">
         <v>40816</v>
       </c>
-      <c r="C416" s="20" t="s">
+      <c r="C416" s="16" t="s">
         <v>401</v>
       </c>
       <c r="D416" s="16" t="s">
@@ -16060,7 +16094,7 @@
       <c r="B417" s="11">
         <v>41059</v>
       </c>
-      <c r="C417" s="21" t="s">
+      <c r="C417" s="17" t="s">
         <v>401</v>
       </c>
       <c r="D417" s="17" t="s">
